--- a/2. IMPLEMENTARE/08. RAPOARTE_ACTIVITATE/_REGISTRU_RAPORTARE_ACTIVITATE.xlsx
+++ b/2. IMPLEMENTARE/08. RAPOARTE_ACTIVITATE/_REGISTRU_RAPORTARE_ACTIVITATE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Activitatea 5.3 si revizuire activitate 1</t>
   </si>
   <si>
-    <t>Activitatea 5.3 si revizuire activitate 2</t>
-  </si>
-  <si>
     <t>Configurare / implementare mediu productie (activitate 5.3) si revizuire rezultate cercetare</t>
   </si>
   <si>
@@ -65,85 +62,19 @@
     <t>Activitatea 5.3</t>
   </si>
   <si>
-    <t>Activitatea 5.3 si revizuire activitate 3</t>
-  </si>
-  <si>
-    <t>Activitatea 5.3 si revizuire activitate 4</t>
-  </si>
-  <si>
-    <t>Activitatea 5.3 si revizuire activitate 5</t>
-  </si>
-  <si>
-    <t>Activitatea 5.3 si revizuire activitate 6</t>
-  </si>
-  <si>
     <t>Reviziuirea activitatilor 1.1, 1.2, 1.3 si finalizare activitate 1.4.</t>
   </si>
   <si>
     <t>Activitatea 5.3 - Teste si configurari mediu productie</t>
   </si>
   <si>
-    <t>Activitatea 5.3 si revizuire activitate 7</t>
-  </si>
-  <si>
-    <t>Activitatea 5.3 si revizuire activitate 8</t>
-  </si>
-  <si>
-    <t>Activitatea 5.3 si revizuire activitate 9</t>
-  </si>
-  <si>
-    <t>Activitatea 5.3 si revizuire activitate 10</t>
-  </si>
-  <si>
-    <t>Activitatea 5.3 si revizuire activitate 11</t>
-  </si>
-  <si>
-    <t>Activitatea 5.3 si revizuire activitate 12</t>
-  </si>
-  <si>
-    <t>Activitatea 5.3 si revizuire activitate 13</t>
-  </si>
-  <si>
-    <t>Activitatea 5.3 si revizuire activitate 14</t>
-  </si>
-  <si>
-    <t>Activitatea 5.3 si revizuire activitate 15</t>
-  </si>
-  <si>
-    <t>Activitatea 5.3 si revizuire activitate 16</t>
-  </si>
-  <si>
     <t>Alexandru Purdila</t>
   </si>
   <si>
-    <t>Activitatea 5.4</t>
+    <t>Lucru modele de recunoastere vizuala a interfetelor grafice. Pregatire baze de date si experimente</t>
   </si>
   <si>
-    <t>Activitatea 5.5</t>
-  </si>
-  <si>
-    <t>Activitatea 5.6</t>
-  </si>
-  <si>
-    <t>Activitatea 5.7</t>
-  </si>
-  <si>
-    <t>Activitatea 5.8</t>
-  </si>
-  <si>
-    <t>Activitatea 5.9</t>
-  </si>
-  <si>
-    <t>Activitatea 5.10</t>
-  </si>
-  <si>
-    <t>Activitatea 5.11</t>
-  </si>
-  <si>
-    <t>Activitatea 5.12</t>
-  </si>
-  <si>
-    <t>Activitatea 5.13</t>
+    <t>Configurare / implementare mediu productie (activitate 5.3) si revizuire rezultate cercetare. Pregatire Dataset-uri de imagini ale controalelor-primitive</t>
   </si>
 </sst>
 </file>
@@ -486,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E356"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -525,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -960,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -972,10 +903,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -987,10 +918,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1002,10 +933,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1017,10 +948,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1032,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1047,10 +978,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1062,10 +993,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1077,10 +1008,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1092,10 +1023,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1107,10 +1038,10 @@
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1122,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1137,10 +1068,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1152,10 +1083,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1167,10 +1098,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1182,205 +1113,394 @@
         <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>42858</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>42859</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>42860</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>42863</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>42864</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>42865</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>42866</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>42867</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>42870</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>42871</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>42872</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>42873</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>42874</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>42877</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>42878</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>42879</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>42880</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>42881</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="2">
         <f t="shared" si="0"/>
         <v>42884</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="2">
         <f t="shared" si="0"/>
         <v>42885</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="2">
         <f t="shared" si="0"/>
         <v>42886</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="2">
         <f t="shared" ref="B69:B132" si="1">WORKDAY(B68,1)</f>
         <v>42887</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="2">
         <f t="shared" si="1"/>
         <v>42888</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="2">
         <f t="shared" si="1"/>
         <v>42891</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="2">
         <f t="shared" si="1"/>
         <v>42892</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="2">
         <f t="shared" si="1"/>
         <v>42893</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="2">
         <f t="shared" si="1"/>
         <v>42894</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="2">
         <f t="shared" si="1"/>
         <v>42895</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="2">
         <f t="shared" si="1"/>
         <v>42898</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="2">
         <f t="shared" si="1"/>
         <v>42899</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="2">
         <f t="shared" si="1"/>
         <v>42900</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="2">
         <f t="shared" si="1"/>
         <v>42901</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="2">
         <f t="shared" si="1"/>
         <v>42902</v>
@@ -3052,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E356"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView showGridLines="0" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.85" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3085,13 +3205,13 @@
         <v>42797</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3100,13 +3220,13 @@
         <v>42800</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3115,13 +3235,13 @@
         <v>42801</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3130,13 +3250,13 @@
         <v>42802</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3145,13 +3265,13 @@
         <v>42803</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3160,13 +3280,13 @@
         <v>42804</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3175,13 +3295,13 @@
         <v>42807</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3190,13 +3310,13 @@
         <v>42808</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3205,13 +3325,13 @@
         <v>42809</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3220,13 +3340,13 @@
         <v>42810</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3235,13 +3355,13 @@
         <v>42811</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3250,13 +3370,13 @@
         <v>42814</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3265,13 +3385,13 @@
         <v>42815</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3280,13 +3400,13 @@
         <v>42816</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3295,13 +3415,13 @@
         <v>42817</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3310,13 +3430,13 @@
         <v>42818</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3325,13 +3445,13 @@
         <v>42821</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3340,13 +3460,13 @@
         <v>42822</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3355,13 +3475,13 @@
         <v>42823</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3370,13 +3490,13 @@
         <v>42824</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3385,13 +3505,13 @@
         <v>42825</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3400,13 +3520,13 @@
         <v>42828</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3415,13 +3535,13 @@
         <v>42829</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3430,13 +3550,13 @@
         <v>42830</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3445,13 +3565,13 @@
         <v>42831</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3460,13 +3580,13 @@
         <v>42832</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3475,13 +3595,13 @@
         <v>42835</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3490,13 +3610,13 @@
         <v>42836</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3505,13 +3625,13 @@
         <v>42837</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3520,13 +3640,13 @@
         <v>42838</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3535,13 +3655,13 @@
         <v>42839</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3550,13 +3670,13 @@
         <v>42842</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3565,13 +3685,13 @@
         <v>42843</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3580,13 +3700,13 @@
         <v>42844</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3595,13 +3715,13 @@
         <v>42845</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3610,13 +3730,13 @@
         <v>42846</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3625,13 +3745,13 @@
         <v>42849</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3640,13 +3760,13 @@
         <v>42850</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3655,13 +3775,13 @@
         <v>42851</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3670,13 +3790,13 @@
         <v>42852</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3685,13 +3805,13 @@
         <v>42853</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3700,13 +3820,13 @@
         <v>42856</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3715,13 +3835,13 @@
         <v>42857</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -3729,206 +3849,395 @@
         <f t="shared" si="0"/>
         <v>42858</v>
       </c>
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>42859</v>
       </c>
+      <c r="C47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>42860</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>42863</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>42864</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>42865</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>42866</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>42867</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>42870</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>42871</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>42872</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>42873</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>42874</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>42877</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>42878</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>42879</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>42880</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>42881</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>42884</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>42885</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="2">
         <f t="shared" si="0"/>
         <v>42886</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="2">
         <f t="shared" si="0"/>
         <v>42887</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="2">
         <f t="shared" si="0"/>
         <v>42888</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="2">
         <f t="shared" ref="B69:B132" si="1">WORKDAY(B68,1)</f>
         <v>42891</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="2">
         <f t="shared" si="1"/>
         <v>42892</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="2">
         <f t="shared" si="1"/>
         <v>42893</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="2">
         <f t="shared" si="1"/>
         <v>42894</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="2">
         <f t="shared" si="1"/>
         <v>42895</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="2">
         <f t="shared" si="1"/>
         <v>42898</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="2">
         <f t="shared" si="1"/>
         <v>42899</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="2">
         <f t="shared" si="1"/>
         <v>42900</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="2">
         <f t="shared" si="1"/>
         <v>42901</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="2">
         <f t="shared" si="1"/>
         <v>42902</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="2">
         <f t="shared" si="1"/>
         <v>42905</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="2">
         <f t="shared" si="1"/>
         <v>42906</v>
@@ -5599,8 +5908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E356"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5636,10 +5945,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5651,10 +5960,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5666,10 +5975,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5681,10 +5990,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5696,10 +6005,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5711,10 +6020,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5726,10 +6035,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5741,10 +6050,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5756,10 +6065,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5771,10 +6080,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5786,10 +6095,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5801,10 +6110,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5816,10 +6125,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5831,10 +6140,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5846,10 +6155,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5861,10 +6170,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5876,10 +6185,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5891,10 +6200,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5906,10 +6215,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5921,10 +6230,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5936,10 +6245,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5951,10 +6260,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5962,140 +6271,329 @@
         <f t="shared" si="0"/>
         <v>42858</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>42859</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>42860</v>
       </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>42863</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>42864</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>42865</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>42866</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>42867</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>42870</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>42871</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>42872</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>42873</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>42874</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>42877</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>42878</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>42879</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>42880</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>42881</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>42884</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>42885</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>42886</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>42887</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>42888</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>42891</v>

--- a/2. IMPLEMENTARE/08. RAPOARTE_ACTIVITATE/_REGISTRU_RAPORTARE_ACTIVITATE.xlsx
+++ b/2. IMPLEMENTARE/08. RAPOARTE_ACTIVITATE/_REGISTRU_RAPORTARE_ACTIVITATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Director Proiect" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="40">
   <si>
     <t>Data</t>
   </si>
@@ -75,6 +75,72 @@
   </si>
   <si>
     <t>Configurare / implementare mediu productie (activitate 5.3) si revizuire rezultate cercetare. Pregatire Dataset-uri de imagini ale controalelor-primitive</t>
+  </si>
+  <si>
+    <t>Pregatire dateset-uri de experimentare a modelelor de inferenta a scenei (scena=ecran complet de aplicatie)</t>
+  </si>
+  <si>
+    <t>Testare mediu de productie (activitate 5.3). Pregatire dataset-uri. Experimentare inferenta scena-ecran folosind predictori superficiali</t>
+  </si>
+  <si>
+    <t>Activitatea 5.4</t>
+  </si>
+  <si>
+    <t>Activitatea 5.5</t>
+  </si>
+  <si>
+    <t>Activitatea 5.6</t>
+  </si>
+  <si>
+    <t>Activitatea 5.7</t>
+  </si>
+  <si>
+    <t>Activitatea 5.8</t>
+  </si>
+  <si>
+    <t>Activitatea 5.9</t>
+  </si>
+  <si>
+    <t>Activitatea 5.10</t>
+  </si>
+  <si>
+    <t>Activitatea 5.11</t>
+  </si>
+  <si>
+    <t>Activitatea 5.12</t>
+  </si>
+  <si>
+    <t>Activitatea 5.13</t>
+  </si>
+  <si>
+    <t>Activitatea 5.14</t>
+  </si>
+  <si>
+    <t>Activitatea 5.15</t>
+  </si>
+  <si>
+    <t>Activitatea 5.16</t>
+  </si>
+  <si>
+    <t>Activitatea 5.17</t>
+  </si>
+  <si>
+    <t>Activitatea 5.18</t>
+  </si>
+  <si>
+    <t>Activitatea 5.19</t>
+  </si>
+  <si>
+    <t>Activitatea 5.20</t>
+  </si>
+  <si>
+    <t>Activitatea 5.21</t>
+  </si>
+  <si>
+    <t>Activitatea 5.22</t>
+  </si>
+  <si>
+    <t>Activitatea 5.23</t>
   </si>
 </sst>
 </file>
@@ -3172,8 +3238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E356"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54:E66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.85" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4165,10 +4231,19 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B68" s="2">
         <f t="shared" si="0"/>
         <v>42888</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -4176,164 +4251,344 @@
         <f t="shared" ref="B69:B132" si="1">WORKDAY(B68,1)</f>
         <v>42891</v>
       </c>
+      <c r="C69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="70" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="2">
         <f t="shared" si="1"/>
         <v>42892</v>
       </c>
+      <c r="C70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="71" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="2">
         <f t="shared" si="1"/>
         <v>42893</v>
       </c>
+      <c r="C71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="72" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="2">
         <f t="shared" si="1"/>
         <v>42894</v>
       </c>
+      <c r="C72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="73" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="2">
         <f t="shared" si="1"/>
         <v>42895</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="74" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="2">
         <f t="shared" si="1"/>
         <v>42898</v>
       </c>
+      <c r="C74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="75" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="2">
         <f t="shared" si="1"/>
         <v>42899</v>
       </c>
+      <c r="C75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="76" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="2">
         <f t="shared" si="1"/>
         <v>42900</v>
       </c>
+      <c r="C76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="77" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="2">
         <f t="shared" si="1"/>
         <v>42901</v>
       </c>
+      <c r="C77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="78" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="2">
         <f t="shared" si="1"/>
         <v>42902</v>
       </c>
+      <c r="C78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="79" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="2">
         <f t="shared" si="1"/>
         <v>42905</v>
       </c>
+      <c r="C79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="80" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="2">
         <f t="shared" si="1"/>
         <v>42906</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="2">
         <f t="shared" si="1"/>
         <v>42907</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="2">
         <f t="shared" si="1"/>
         <v>42908</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="2">
         <f t="shared" si="1"/>
         <v>42909</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="2">
         <f t="shared" si="1"/>
         <v>42912</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="2">
         <f t="shared" si="1"/>
         <v>42913</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="2">
         <f t="shared" si="1"/>
         <v>42914</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="2">
         <f t="shared" si="1"/>
         <v>42915</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="2">
         <f t="shared" si="1"/>
         <v>42916</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="2">
         <f t="shared" si="1"/>
         <v>42919</v>
       </c>
     </row>
-    <row r="90" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="2">
         <f t="shared" si="1"/>
         <v>42920</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="2">
         <f t="shared" si="1"/>
         <v>42921</v>
       </c>
     </row>
-    <row r="92" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="2">
         <f t="shared" si="1"/>
         <v>42922</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="2">
         <f t="shared" si="1"/>
         <v>42923</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="2">
         <f t="shared" si="1"/>
         <v>42926</v>
       </c>
     </row>
-    <row r="95" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="2">
         <f t="shared" si="1"/>
         <v>42927</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="2">
         <f t="shared" si="1"/>
         <v>42928</v>
@@ -5908,8 +6163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E356"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showGridLines="0" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5918,7 +6173,7 @@
     <col min="2" max="2" width="13.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.06640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.1328125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
@@ -6592,200 +6847,389 @@
         <f t="shared" si="0"/>
         <v>42888</v>
       </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="48" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>42891</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>42892</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>42893</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>42894</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>42895</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>42898</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>42899</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>42900</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>42901</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>42902</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>42905</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>42906</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>42907</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>42908</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>42909</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>42912</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>42913</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>42914</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="2">
         <f t="shared" si="0"/>
         <v>42915</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="2">
         <f t="shared" si="0"/>
         <v>42916</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="2">
         <f t="shared" si="0"/>
         <v>42919</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="2">
         <f t="shared" ref="B69:B132" si="1">WORKDAY(B68,1)</f>
         <v>42920</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="2">
         <f t="shared" si="1"/>
         <v>42921</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="2">
         <f t="shared" si="1"/>
         <v>42922</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="2">
         <f t="shared" si="1"/>
         <v>42923</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="2">
         <f t="shared" si="1"/>
         <v>42926</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="2">
         <f t="shared" si="1"/>
         <v>42927</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="2">
         <f t="shared" si="1"/>
         <v>42928</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="2">
         <f t="shared" si="1"/>
         <v>42929</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="2">
         <f t="shared" si="1"/>
         <v>42930</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="2">
         <f t="shared" si="1"/>
         <v>42933</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="2">
         <f t="shared" si="1"/>
         <v>42934</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="2">
         <f t="shared" si="1"/>
         <v>42935</v>

--- a/2. IMPLEMENTARE/08. RAPOARTE_ACTIVITATE/_REGISTRU_RAPORTARE_ACTIVITATE.xlsx
+++ b/2. IMPLEMENTARE/08. RAPOARTE_ACTIVITATE/_REGISTRU_RAPORTARE_ACTIVITATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Director Proiect" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -81,66 +81,6 @@
   </si>
   <si>
     <t>Testare mediu de productie (activitate 5.3). Pregatire dataset-uri. Experimentare inferenta scena-ecran folosind predictori superficiali</t>
-  </si>
-  <si>
-    <t>Activitatea 5.4</t>
-  </si>
-  <si>
-    <t>Activitatea 5.5</t>
-  </si>
-  <si>
-    <t>Activitatea 5.6</t>
-  </si>
-  <si>
-    <t>Activitatea 5.7</t>
-  </si>
-  <si>
-    <t>Activitatea 5.8</t>
-  </si>
-  <si>
-    <t>Activitatea 5.9</t>
-  </si>
-  <si>
-    <t>Activitatea 5.10</t>
-  </si>
-  <si>
-    <t>Activitatea 5.11</t>
-  </si>
-  <si>
-    <t>Activitatea 5.12</t>
-  </si>
-  <si>
-    <t>Activitatea 5.13</t>
-  </si>
-  <si>
-    <t>Activitatea 5.14</t>
-  </si>
-  <si>
-    <t>Activitatea 5.15</t>
-  </si>
-  <si>
-    <t>Activitatea 5.16</t>
-  </si>
-  <si>
-    <t>Activitatea 5.17</t>
-  </si>
-  <si>
-    <t>Activitatea 5.18</t>
-  </si>
-  <si>
-    <t>Activitatea 5.19</t>
-  </si>
-  <si>
-    <t>Activitatea 5.20</t>
-  </si>
-  <si>
-    <t>Activitatea 5.21</t>
-  </si>
-  <si>
-    <t>Activitatea 5.22</t>
-  </si>
-  <si>
-    <t>Activitatea 5.23</t>
   </si>
 </sst>
 </file>
@@ -483,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E356"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -3238,8 +3178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E356"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView showGridLines="0" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.85" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4255,7 +4195,7 @@
         <v>15</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>19</v>
@@ -4270,7 +4210,7 @@
         <v>15</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>19</v>
@@ -4285,7 +4225,7 @@
         <v>15</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>19</v>
@@ -4300,7 +4240,7 @@
         <v>15</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>19</v>
@@ -4315,7 +4255,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>19</v>
@@ -4330,7 +4270,7 @@
         <v>15</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>19</v>
@@ -4345,7 +4285,7 @@
         <v>15</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>19</v>
@@ -4360,7 +4300,7 @@
         <v>15</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>19</v>
@@ -4375,7 +4315,7 @@
         <v>15</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>19</v>
@@ -4390,7 +4330,7 @@
         <v>15</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>19</v>
@@ -4405,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>19</v>
@@ -4420,7 +4360,7 @@
         <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>19</v>
@@ -4435,7 +4375,7 @@
         <v>15</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>19</v>
@@ -4450,7 +4390,7 @@
         <v>15</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>19</v>
@@ -4465,7 +4405,7 @@
         <v>15</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>19</v>
@@ -4480,7 +4420,7 @@
         <v>15</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>19</v>
@@ -4495,7 +4435,7 @@
         <v>15</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>19</v>
@@ -4510,7 +4450,7 @@
         <v>15</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>19</v>
@@ -4525,7 +4465,7 @@
         <v>15</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>19</v>
@@ -4540,7 +4480,7 @@
         <v>15</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>19</v>
@@ -6163,8 +6103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E356"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:E67"/>
+    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.4" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/2. IMPLEMENTARE/08. RAPOARTE_ACTIVITATE/_REGISTRU_RAPORTARE_ACTIVITATE.xlsx
+++ b/2. IMPLEMENTARE/08. RAPOARTE_ACTIVITATE/_REGISTRU_RAPORTARE_ACTIVITATE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Director Proiect" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="31">
   <si>
     <t>Data</t>
   </si>
@@ -81,6 +81,39 @@
   </si>
   <si>
     <t>Testare mediu de productie (activitate 5.3). Pregatire dataset-uri. Experimentare inferenta scena-ecran folosind predictori superficiali</t>
+  </si>
+  <si>
+    <t>Dezvoltare experiment real cu ajutorul unei retele neurale adanci convolutionale pentru identificarea segmentelor scenei</t>
+  </si>
+  <si>
+    <t>Mihai CRISTEA</t>
+  </si>
+  <si>
+    <t>Activitatea 5.3 - Teste si configurari mediu productie, Actvititate 2 - Dezvoltare experimentala (analiza rezultate/livrabile furnizor)</t>
+  </si>
+  <si>
+    <t>Testarea modulelor software livrate de furnizorul serviciilor de dezvoltare experimentala (activitate 2) incluzand (a) modul generare retele neurale adanci convolutionale specifice recunoasterii vizuale a interfetelor grafice (recunoastere invarianta functie de dimensiuni si locatii) si (b) modul documentare automata (prin log) a experimentelor</t>
+  </si>
+  <si>
+    <t>Suport activitate 2.1 si 2.2, activitate 5.3 (configurare) si 5.4 (programare productie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testarea modulelor software livrate de furnizorul serviciilor de dezvoltare experimentala (activitate 2). Adaptarea modulelor experimentale livrate de furnizor la cerintele ecosistemului de productie a Cloudifier. Pregatirea lucrarii pentru prezentarea rezultatelor Cloudifier in cadrul conferintei internationale ICCS 2017 </t>
+  </si>
+  <si>
+    <t>Revizuire activitate 1, Revizuire activitate 2, lucru activitate 5.3 si 5.4</t>
+  </si>
+  <si>
+    <t>Pragatirea documentatiei stiintifice pentru conferinta ICCS 2017 in cadrul careia se vor prezenta rezultatele stiintifice ale Cloudifier (include revizuire activitate 1). Analiza si verificarea livrabilelor furnizorului HTSS (activitate 2). Testarea modelelor experimentale in mediul de productie (activitate 5.3 si 5.4)</t>
+  </si>
+  <si>
+    <t>Pregatirea documentatiei stiintifice pentru conferinta ICCS 2017 in cadrul careia se vor prezenta rezultatele stiintifice ale Cloudifier (include revizuire activitate 1). Analiza si verificarea livrabilelor furnizorului HTSS (activitate 2). Testarea modelelor experimentale in mediul de productie (activitate 5.3 si 5.4)</t>
+  </si>
+  <si>
+    <t>Testarea modulelor software livrate de furnizorul serviciilor de dezvoltare experimentala (activitate 2). Adaptarea modulelor experimentale livrate de furnizor la cerintele ecosistemului de productie a Cloudifier. Pregatirea lucrarii pentru prezentarea rezultatelor Cloudifier in cadrul conferintei internationale ICCS 2017. Pregatire de dataset-uri augmentate prin mijloace artificiale pentru antrenarea modelelor de inteligenta artificiala</t>
+  </si>
+  <si>
+    <t>Testarea modulelor software livrate de furnizorul serviciilor de dezvoltare experimentala (activitate 2) incluzand (a) modul generare retele neurale adanci convolutionale specifice recunoasterii vizuale a interfetelor grafice (recunoastere invarianta functie de dimensiuni si locatii) si (b) modul documentare automata (prin log) a experimentelor. Pregatirea de dataset-uri pentru testarea dezvoltarii experimentale.</t>
   </si>
 </sst>
 </file>
@@ -423,21 +456,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E356"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="11.9296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.06640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.796875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="86.3984375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -451,7 +484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="2">
         <v>42795</v>
       </c>
@@ -465,7 +498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <f>WORKDAY(B3,1)</f>
         <v>42796</v>
@@ -480,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B68" si="0">WORKDAY(B4,1)</f>
         <v>42797</v>
@@ -495,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>42800</v>
@@ -510,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>42801</v>
@@ -525,7 +558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>42802</v>
@@ -540,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>42803</v>
@@ -555,7 +588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>42804</v>
@@ -570,7 +603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>42807</v>
@@ -585,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>42808</v>
@@ -600,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>42809</v>
@@ -615,7 +648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>42810</v>
@@ -630,7 +663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>42811</v>
@@ -645,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>42814</v>
@@ -660,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>42815</v>
@@ -675,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>42816</v>
@@ -690,7 +723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>42817</v>
@@ -705,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>42818</v>
@@ -720,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>42821</v>
@@ -735,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>42822</v>
@@ -750,7 +783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>42823</v>
@@ -765,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>42824</v>
@@ -780,7 +813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>42825</v>
@@ -795,7 +828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>42828</v>
@@ -810,7 +843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>42829</v>
@@ -825,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>42830</v>
@@ -840,7 +873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>42831</v>
@@ -855,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>42832</v>
@@ -870,7 +903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>42835</v>
@@ -885,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>42836</v>
@@ -900,7 +933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>42837</v>
@@ -915,7 +948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>42838</v>
@@ -930,7 +963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>42839</v>
@@ -945,7 +978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>42842</v>
@@ -960,7 +993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>42843</v>
@@ -975,7 +1008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>42844</v>
@@ -990,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>42845</v>
@@ -1005,7 +1038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>42846</v>
@@ -1020,7 +1053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>42849</v>
@@ -1035,7 +1068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>42850</v>
@@ -1050,7 +1083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>42851</v>
@@ -1065,7 +1098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>42852</v>
@@ -1080,7 +1113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>42853</v>
@@ -1095,7 +1128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -1110,7 +1143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>42857</v>
@@ -1125,7 +1158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>42858</v>
@@ -1140,7 +1173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>42859</v>
@@ -1155,7 +1188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>42860</v>
@@ -1170,7 +1203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>42863</v>
@@ -1185,7 +1218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>42864</v>
@@ -1200,7 +1233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>42865</v>
@@ -1215,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>42866</v>
@@ -1230,7 +1263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>42867</v>
@@ -1245,7 +1278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>42870</v>
@@ -1260,7 +1293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>42871</v>
@@ -1275,7 +1308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>42872</v>
@@ -1290,7 +1323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>42873</v>
@@ -1305,7 +1338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>42874</v>
@@ -1320,7 +1353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>42877</v>
@@ -1335,7 +1368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>42878</v>
@@ -1350,7 +1383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>42879</v>
@@ -1365,7 +1398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>42880</v>
@@ -1380,7 +1413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>42881</v>
@@ -1395,7 +1428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B66" s="2">
         <f t="shared" si="0"/>
         <v>42884</v>
@@ -1410,7 +1443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B67" s="2">
         <f t="shared" si="0"/>
         <v>42885</v>
@@ -1425,7 +1458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B68" s="2">
         <f t="shared" si="0"/>
         <v>42886</v>
@@ -1440,1729 +1473,2179 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B69" s="2">
         <f t="shared" ref="B69:B132" si="1">WORKDAY(B68,1)</f>
         <v>42887</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B70" s="2">
         <f t="shared" si="1"/>
         <v>42888</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B71" s="2">
         <f t="shared" si="1"/>
         <v>42891</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B72" s="2">
         <f t="shared" si="1"/>
         <v>42892</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B73" s="2">
         <f t="shared" si="1"/>
         <v>42893</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B74" s="2">
         <f t="shared" si="1"/>
         <v>42894</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B75" s="2">
         <f t="shared" si="1"/>
         <v>42895</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B76" s="2">
         <f t="shared" si="1"/>
         <v>42898</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B77" s="2">
         <f t="shared" si="1"/>
         <v>42899</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B78" s="2">
         <f t="shared" si="1"/>
         <v>42900</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B79" s="2">
         <f t="shared" si="1"/>
         <v>42901</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B80" s="2">
         <f t="shared" si="1"/>
         <v>42902</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B81" s="2">
         <f t="shared" si="1"/>
         <v>42905</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B82" s="2">
         <f t="shared" si="1"/>
         <v>42906</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B83" s="2">
         <f t="shared" si="1"/>
         <v>42907</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B84" s="2">
         <f t="shared" si="1"/>
         <v>42908</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B85" s="2">
         <f t="shared" si="1"/>
         <v>42909</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B86" s="2">
         <f t="shared" si="1"/>
         <v>42912</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B87" s="2">
         <f t="shared" si="1"/>
         <v>42913</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B88" s="2">
         <f t="shared" si="1"/>
         <v>42914</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B89" s="2">
         <f t="shared" si="1"/>
         <v>42915</v>
       </c>
-    </row>
-    <row r="90" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B90" s="2">
         <f t="shared" si="1"/>
         <v>42916</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B91" s="2">
         <f t="shared" si="1"/>
         <v>42919</v>
       </c>
-    </row>
-    <row r="92" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B92" s="2">
         <f t="shared" si="1"/>
         <v>42920</v>
       </c>
-    </row>
-    <row r="93" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B93" s="2">
         <f t="shared" si="1"/>
         <v>42921</v>
       </c>
-    </row>
-    <row r="94" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B94" s="2">
         <f t="shared" si="1"/>
         <v>42922</v>
       </c>
-    </row>
-    <row r="95" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B95" s="2">
         <f t="shared" si="1"/>
         <v>42923</v>
       </c>
-    </row>
-    <row r="96" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B96" s="2">
         <f t="shared" si="1"/>
         <v>42926</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B97" s="2">
         <f t="shared" si="1"/>
         <v>42927</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B98" s="2">
         <f t="shared" si="1"/>
         <v>42928</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B99" s="2">
         <f t="shared" si="1"/>
         <v>42929</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B100" s="2">
         <f t="shared" si="1"/>
         <v>42930</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B101" s="2">
         <f t="shared" si="1"/>
         <v>42933</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B102" s="2">
         <f t="shared" si="1"/>
         <v>42934</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B103" s="2">
         <f t="shared" si="1"/>
         <v>42935</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B104" s="2">
         <f t="shared" si="1"/>
         <v>42936</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B105" s="2">
         <f t="shared" si="1"/>
         <v>42937</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B106" s="2">
         <f t="shared" si="1"/>
         <v>42940</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B107" s="2">
         <f t="shared" si="1"/>
         <v>42941</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B108" s="2">
         <f t="shared" si="1"/>
         <v>42942</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B109" s="2">
         <f t="shared" si="1"/>
         <v>42943</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B110" s="2">
         <f t="shared" si="1"/>
         <v>42944</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B111" s="2">
         <f t="shared" si="1"/>
         <v>42947</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B112" s="2">
         <f t="shared" si="1"/>
         <v>42948</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B113" s="2">
         <f t="shared" si="1"/>
         <v>42949</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B114" s="2">
         <f t="shared" si="1"/>
         <v>42950</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B115" s="2">
         <f t="shared" si="1"/>
         <v>42951</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B116" s="2">
         <f t="shared" si="1"/>
         <v>42954</v>
       </c>
-    </row>
-    <row r="117" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B117" s="2">
         <f t="shared" si="1"/>
         <v>42955</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B118" s="2">
         <f t="shared" si="1"/>
         <v>42956</v>
       </c>
-    </row>
-    <row r="119" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B119" s="2">
         <f t="shared" si="1"/>
         <v>42957</v>
       </c>
     </row>
-    <row r="120" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B120" s="2">
         <f t="shared" si="1"/>
         <v>42958</v>
       </c>
     </row>
-    <row r="121" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B121" s="2">
         <f t="shared" si="1"/>
         <v>42961</v>
       </c>
     </row>
-    <row r="122" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B122" s="2">
         <f t="shared" si="1"/>
         <v>42962</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B123" s="2">
         <f t="shared" si="1"/>
         <v>42963</v>
       </c>
     </row>
-    <row r="124" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B124" s="2">
         <f t="shared" si="1"/>
         <v>42964</v>
       </c>
     </row>
-    <row r="125" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B125" s="2">
         <f t="shared" si="1"/>
         <v>42965</v>
       </c>
     </row>
-    <row r="126" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B126" s="2">
         <f t="shared" si="1"/>
         <v>42968</v>
       </c>
     </row>
-    <row r="127" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B127" s="2">
         <f t="shared" si="1"/>
         <v>42969</v>
       </c>
     </row>
-    <row r="128" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B128" s="2">
         <f t="shared" si="1"/>
         <v>42970</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B129" s="2">
         <f t="shared" si="1"/>
         <v>42971</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B130" s="2">
         <f t="shared" si="1"/>
         <v>42972</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B131" s="2">
         <f t="shared" si="1"/>
         <v>42975</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B132" s="2">
         <f t="shared" si="1"/>
         <v>42976</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B133" s="2">
         <f t="shared" ref="B133:B196" si="2">WORKDAY(B132,1)</f>
         <v>42977</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B134" s="2">
         <f t="shared" si="2"/>
         <v>42978</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B135" s="2">
         <f t="shared" si="2"/>
         <v>42979</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B136" s="2">
         <f t="shared" si="2"/>
         <v>42982</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B137" s="2">
         <f t="shared" si="2"/>
         <v>42983</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B138" s="2">
         <f t="shared" si="2"/>
         <v>42984</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B139" s="2">
         <f t="shared" si="2"/>
         <v>42985</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B140" s="2">
         <f t="shared" si="2"/>
         <v>42986</v>
       </c>
     </row>
-    <row r="141" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B141" s="2">
         <f t="shared" si="2"/>
         <v>42989</v>
       </c>
     </row>
-    <row r="142" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B142" s="2">
         <f t="shared" si="2"/>
         <v>42990</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B143" s="2">
         <f t="shared" si="2"/>
         <v>42991</v>
       </c>
     </row>
-    <row r="144" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B144" s="2">
         <f t="shared" si="2"/>
         <v>42992</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B145" s="2">
         <f t="shared" si="2"/>
         <v>42993</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B146" s="2">
         <f t="shared" si="2"/>
         <v>42996</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B147" s="2">
         <f t="shared" si="2"/>
         <v>42997</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B148" s="2">
         <f t="shared" si="2"/>
         <v>42998</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B149" s="2">
         <f t="shared" si="2"/>
         <v>42999</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B150" s="2">
         <f t="shared" si="2"/>
         <v>43000</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B151" s="2">
         <f t="shared" si="2"/>
         <v>43003</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B152" s="2">
         <f t="shared" si="2"/>
         <v>43004</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B153" s="2">
         <f t="shared" si="2"/>
         <v>43005</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B154" s="2">
         <f t="shared" si="2"/>
         <v>43006</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B155" s="2">
         <f t="shared" si="2"/>
         <v>43007</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B156" s="2">
         <f t="shared" si="2"/>
         <v>43010</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B157" s="2">
         <f t="shared" si="2"/>
         <v>43011</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B158" s="2">
         <f t="shared" si="2"/>
         <v>43012</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B159" s="2">
         <f t="shared" si="2"/>
         <v>43013</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B160" s="2">
         <f t="shared" si="2"/>
         <v>43014</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B161" s="2">
         <f t="shared" si="2"/>
         <v>43017</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B162" s="2">
         <f t="shared" si="2"/>
         <v>43018</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B163" s="2">
         <f t="shared" si="2"/>
         <v>43019</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B164" s="2">
         <f t="shared" si="2"/>
         <v>43020</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B165" s="2">
         <f t="shared" si="2"/>
         <v>43021</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B166" s="2">
         <f t="shared" si="2"/>
         <v>43024</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B167" s="2">
         <f t="shared" si="2"/>
         <v>43025</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B168" s="2">
         <f t="shared" si="2"/>
         <v>43026</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B169" s="2">
         <f t="shared" si="2"/>
         <v>43027</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B170" s="2">
         <f t="shared" si="2"/>
         <v>43028</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B171" s="2">
         <f t="shared" si="2"/>
         <v>43031</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B172" s="2">
         <f t="shared" si="2"/>
         <v>43032</v>
       </c>
     </row>
-    <row r="173" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B173" s="2">
         <f t="shared" si="2"/>
         <v>43033</v>
       </c>
     </row>
-    <row r="174" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B174" s="2">
         <f t="shared" si="2"/>
         <v>43034</v>
       </c>
     </row>
-    <row r="175" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B175" s="2">
         <f t="shared" si="2"/>
         <v>43035</v>
       </c>
     </row>
-    <row r="176" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B176" s="2">
         <f t="shared" si="2"/>
         <v>43038</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B177" s="2">
         <f t="shared" si="2"/>
         <v>43039</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B178" s="2">
         <f t="shared" si="2"/>
         <v>43040</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B179" s="2">
         <f t="shared" si="2"/>
         <v>43041</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B180" s="2">
         <f t="shared" si="2"/>
         <v>43042</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B181" s="2">
         <f t="shared" si="2"/>
         <v>43045</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B182" s="2">
         <f t="shared" si="2"/>
         <v>43046</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B183" s="2">
         <f t="shared" si="2"/>
         <v>43047</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B184" s="2">
         <f t="shared" si="2"/>
         <v>43048</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B185" s="2">
         <f t="shared" si="2"/>
         <v>43049</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B186" s="2">
         <f t="shared" si="2"/>
         <v>43052</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B187" s="2">
         <f t="shared" si="2"/>
         <v>43053</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B188" s="2">
         <f t="shared" si="2"/>
         <v>43054</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B189" s="2">
         <f t="shared" si="2"/>
         <v>43055</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B190" s="2">
         <f t="shared" si="2"/>
         <v>43056</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B191" s="2">
         <f t="shared" si="2"/>
         <v>43059</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B192" s="2">
         <f t="shared" si="2"/>
         <v>43060</v>
       </c>
     </row>
-    <row r="193" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B193" s="2">
         <f t="shared" si="2"/>
         <v>43061</v>
       </c>
     </row>
-    <row r="194" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B194" s="2">
         <f t="shared" si="2"/>
         <v>43062</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B195" s="2">
         <f t="shared" si="2"/>
         <v>43063</v>
       </c>
     </row>
-    <row r="196" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B196" s="2">
         <f t="shared" si="2"/>
         <v>43066</v>
       </c>
     </row>
-    <row r="197" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B197" s="2">
         <f t="shared" ref="B197:B260" si="3">WORKDAY(B196,1)</f>
         <v>43067</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B198" s="2">
         <f t="shared" si="3"/>
         <v>43068</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B199" s="2">
         <f t="shared" si="3"/>
         <v>43069</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B200" s="2">
         <f t="shared" si="3"/>
         <v>43070</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B201" s="2">
         <f t="shared" si="3"/>
         <v>43073</v>
       </c>
     </row>
-    <row r="202" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B202" s="2">
         <f t="shared" si="3"/>
         <v>43074</v>
       </c>
     </row>
-    <row r="203" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B203" s="2">
         <f t="shared" si="3"/>
         <v>43075</v>
       </c>
     </row>
-    <row r="204" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B204" s="2">
         <f t="shared" si="3"/>
         <v>43076</v>
       </c>
     </row>
-    <row r="205" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B205" s="2">
         <f t="shared" si="3"/>
         <v>43077</v>
       </c>
     </row>
-    <row r="206" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B206" s="2">
         <f t="shared" si="3"/>
         <v>43080</v>
       </c>
     </row>
-    <row r="207" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B207" s="2">
         <f t="shared" si="3"/>
         <v>43081</v>
       </c>
     </row>
-    <row r="208" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B208" s="2">
         <f t="shared" si="3"/>
         <v>43082</v>
       </c>
     </row>
-    <row r="209" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B209" s="2">
         <f t="shared" si="3"/>
         <v>43083</v>
       </c>
     </row>
-    <row r="210" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B210" s="2">
         <f t="shared" si="3"/>
         <v>43084</v>
       </c>
     </row>
-    <row r="211" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B211" s="2">
         <f t="shared" si="3"/>
         <v>43087</v>
       </c>
     </row>
-    <row r="212" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B212" s="2">
         <f t="shared" si="3"/>
         <v>43088</v>
       </c>
     </row>
-    <row r="213" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B213" s="2">
         <f t="shared" si="3"/>
         <v>43089</v>
       </c>
     </row>
-    <row r="214" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B214" s="2">
         <f t="shared" si="3"/>
         <v>43090</v>
       </c>
     </row>
-    <row r="215" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B215" s="2">
         <f t="shared" si="3"/>
         <v>43091</v>
       </c>
     </row>
-    <row r="216" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B216" s="2">
         <f t="shared" si="3"/>
         <v>43094</v>
       </c>
     </row>
-    <row r="217" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B217" s="2">
         <f t="shared" si="3"/>
         <v>43095</v>
       </c>
     </row>
-    <row r="218" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B218" s="2">
         <f t="shared" si="3"/>
         <v>43096</v>
       </c>
     </row>
-    <row r="219" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B219" s="2">
         <f t="shared" si="3"/>
         <v>43097</v>
       </c>
     </row>
-    <row r="220" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B220" s="2">
         <f t="shared" si="3"/>
         <v>43098</v>
       </c>
     </row>
-    <row r="221" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B221" s="2">
         <f t="shared" si="3"/>
         <v>43101</v>
       </c>
     </row>
-    <row r="222" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B222" s="2">
         <f t="shared" si="3"/>
         <v>43102</v>
       </c>
     </row>
-    <row r="223" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B223" s="2">
         <f t="shared" si="3"/>
         <v>43103</v>
       </c>
     </row>
-    <row r="224" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B224" s="2">
         <f t="shared" si="3"/>
         <v>43104</v>
       </c>
     </row>
-    <row r="225" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B225" s="2">
         <f t="shared" si="3"/>
         <v>43105</v>
       </c>
     </row>
-    <row r="226" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B226" s="2">
         <f t="shared" si="3"/>
         <v>43108</v>
       </c>
     </row>
-    <row r="227" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B227" s="2">
         <f t="shared" si="3"/>
         <v>43109</v>
       </c>
     </row>
-    <row r="228" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B228" s="2">
         <f t="shared" si="3"/>
         <v>43110</v>
       </c>
     </row>
-    <row r="229" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B229" s="2">
         <f t="shared" si="3"/>
         <v>43111</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B230" s="2">
         <f t="shared" si="3"/>
         <v>43112</v>
       </c>
     </row>
-    <row r="231" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B231" s="2">
         <f t="shared" si="3"/>
         <v>43115</v>
       </c>
     </row>
-    <row r="232" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B232" s="2">
         <f t="shared" si="3"/>
         <v>43116</v>
       </c>
     </row>
-    <row r="233" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B233" s="2">
         <f t="shared" si="3"/>
         <v>43117</v>
       </c>
     </row>
-    <row r="234" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B234" s="2">
         <f t="shared" si="3"/>
         <v>43118</v>
       </c>
     </row>
-    <row r="235" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B235" s="2">
         <f t="shared" si="3"/>
         <v>43119</v>
       </c>
     </row>
-    <row r="236" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B236" s="2">
         <f t="shared" si="3"/>
         <v>43122</v>
       </c>
     </row>
-    <row r="237" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B237" s="2">
         <f t="shared" si="3"/>
         <v>43123</v>
       </c>
     </row>
-    <row r="238" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B238" s="2">
         <f t="shared" si="3"/>
         <v>43124</v>
       </c>
     </row>
-    <row r="239" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B239" s="2">
         <f t="shared" si="3"/>
         <v>43125</v>
       </c>
     </row>
-    <row r="240" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B240" s="2">
         <f t="shared" si="3"/>
         <v>43126</v>
       </c>
     </row>
-    <row r="241" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B241" s="2">
         <f t="shared" si="3"/>
         <v>43129</v>
       </c>
     </row>
-    <row r="242" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B242" s="2">
         <f t="shared" si="3"/>
         <v>43130</v>
       </c>
     </row>
-    <row r="243" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B243" s="2">
         <f t="shared" si="3"/>
         <v>43131</v>
       </c>
     </row>
-    <row r="244" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B244" s="2">
         <f t="shared" si="3"/>
         <v>43132</v>
       </c>
     </row>
-    <row r="245" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B245" s="2">
         <f t="shared" si="3"/>
         <v>43133</v>
       </c>
     </row>
-    <row r="246" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B246" s="2">
         <f t="shared" si="3"/>
         <v>43136</v>
       </c>
     </row>
-    <row r="247" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B247" s="2">
         <f t="shared" si="3"/>
         <v>43137</v>
       </c>
     </row>
-    <row r="248" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B248" s="2">
         <f t="shared" si="3"/>
         <v>43138</v>
       </c>
     </row>
-    <row r="249" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B249" s="2">
         <f t="shared" si="3"/>
         <v>43139</v>
       </c>
     </row>
-    <row r="250" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B250" s="2">
         <f t="shared" si="3"/>
         <v>43140</v>
       </c>
     </row>
-    <row r="251" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B251" s="2">
         <f t="shared" si="3"/>
         <v>43143</v>
       </c>
     </row>
-    <row r="252" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B252" s="2">
         <f t="shared" si="3"/>
         <v>43144</v>
       </c>
     </row>
-    <row r="253" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B253" s="2">
         <f t="shared" si="3"/>
         <v>43145</v>
       </c>
     </row>
-    <row r="254" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B254" s="2">
         <f t="shared" si="3"/>
         <v>43146</v>
       </c>
     </row>
-    <row r="255" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B255" s="2">
         <f t="shared" si="3"/>
         <v>43147</v>
       </c>
     </row>
-    <row r="256" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B256" s="2">
         <f t="shared" si="3"/>
         <v>43150</v>
       </c>
     </row>
-    <row r="257" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B257" s="2">
         <f t="shared" si="3"/>
         <v>43151</v>
       </c>
     </row>
-    <row r="258" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B258" s="2">
         <f t="shared" si="3"/>
         <v>43152</v>
       </c>
     </row>
-    <row r="259" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B259" s="2">
         <f t="shared" si="3"/>
         <v>43153</v>
       </c>
     </row>
-    <row r="260" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B260" s="2">
         <f t="shared" si="3"/>
         <v>43154</v>
       </c>
     </row>
-    <row r="261" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B261" s="2">
         <f t="shared" ref="B261:B324" si="4">WORKDAY(B260,1)</f>
         <v>43157</v>
       </c>
     </row>
-    <row r="262" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B262" s="2">
         <f t="shared" si="4"/>
         <v>43158</v>
       </c>
     </row>
-    <row r="263" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B263" s="2">
         <f t="shared" si="4"/>
         <v>43159</v>
       </c>
     </row>
-    <row r="264" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B264" s="2">
         <f t="shared" si="4"/>
         <v>43160</v>
       </c>
     </row>
-    <row r="265" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B265" s="2">
         <f t="shared" si="4"/>
         <v>43161</v>
       </c>
     </row>
-    <row r="266" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B266" s="2">
         <f t="shared" si="4"/>
         <v>43164</v>
       </c>
     </row>
-    <row r="267" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B267" s="2">
         <f t="shared" si="4"/>
         <v>43165</v>
       </c>
     </row>
-    <row r="268" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B268" s="2">
         <f t="shared" si="4"/>
         <v>43166</v>
       </c>
     </row>
-    <row r="269" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B269" s="2">
         <f t="shared" si="4"/>
         <v>43167</v>
       </c>
     </row>
-    <row r="270" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B270" s="2">
         <f t="shared" si="4"/>
         <v>43168</v>
       </c>
     </row>
-    <row r="271" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B271" s="2">
         <f t="shared" si="4"/>
         <v>43171</v>
       </c>
     </row>
-    <row r="272" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B272" s="2">
         <f t="shared" si="4"/>
         <v>43172</v>
       </c>
     </row>
-    <row r="273" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B273" s="2">
         <f t="shared" si="4"/>
         <v>43173</v>
       </c>
     </row>
-    <row r="274" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B274" s="2">
         <f t="shared" si="4"/>
         <v>43174</v>
       </c>
     </row>
-    <row r="275" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B275" s="2">
         <f t="shared" si="4"/>
         <v>43175</v>
       </c>
     </row>
-    <row r="276" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B276" s="2">
         <f t="shared" si="4"/>
         <v>43178</v>
       </c>
     </row>
-    <row r="277" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B277" s="2">
         <f t="shared" si="4"/>
         <v>43179</v>
       </c>
     </row>
-    <row r="278" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B278" s="2">
         <f t="shared" si="4"/>
         <v>43180</v>
       </c>
     </row>
-    <row r="279" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B279" s="2">
         <f t="shared" si="4"/>
         <v>43181</v>
       </c>
     </row>
-    <row r="280" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B280" s="2">
         <f t="shared" si="4"/>
         <v>43182</v>
       </c>
     </row>
-    <row r="281" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B281" s="2">
         <f t="shared" si="4"/>
         <v>43185</v>
       </c>
     </row>
-    <row r="282" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B282" s="2">
         <f t="shared" si="4"/>
         <v>43186</v>
       </c>
     </row>
-    <row r="283" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B283" s="2">
         <f t="shared" si="4"/>
         <v>43187</v>
       </c>
     </row>
-    <row r="284" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B284" s="2">
         <f t="shared" si="4"/>
         <v>43188</v>
       </c>
     </row>
-    <row r="285" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B285" s="2">
         <f t="shared" si="4"/>
         <v>43189</v>
       </c>
     </row>
-    <row r="286" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B286" s="2">
         <f t="shared" si="4"/>
         <v>43192</v>
       </c>
     </row>
-    <row r="287" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B287" s="2">
         <f t="shared" si="4"/>
         <v>43193</v>
       </c>
     </row>
-    <row r="288" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B288" s="2">
         <f t="shared" si="4"/>
         <v>43194</v>
       </c>
     </row>
-    <row r="289" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B289" s="2">
         <f t="shared" si="4"/>
         <v>43195</v>
       </c>
     </row>
-    <row r="290" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B290" s="2">
         <f t="shared" si="4"/>
         <v>43196</v>
       </c>
     </row>
-    <row r="291" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B291" s="2">
         <f t="shared" si="4"/>
         <v>43199</v>
       </c>
     </row>
-    <row r="292" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B292" s="2">
         <f t="shared" si="4"/>
         <v>43200</v>
       </c>
     </row>
-    <row r="293" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B293" s="2">
         <f t="shared" si="4"/>
         <v>43201</v>
       </c>
     </row>
-    <row r="294" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B294" s="2">
         <f t="shared" si="4"/>
         <v>43202</v>
       </c>
     </row>
-    <row r="295" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B295" s="2">
         <f t="shared" si="4"/>
         <v>43203</v>
       </c>
     </row>
-    <row r="296" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B296" s="2">
         <f t="shared" si="4"/>
         <v>43206</v>
       </c>
     </row>
-    <row r="297" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B297" s="2">
         <f t="shared" si="4"/>
         <v>43207</v>
       </c>
     </row>
-    <row r="298" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B298" s="2">
         <f t="shared" si="4"/>
         <v>43208</v>
       </c>
     </row>
-    <row r="299" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B299" s="2">
         <f t="shared" si="4"/>
         <v>43209</v>
       </c>
     </row>
-    <row r="300" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B300" s="2">
         <f t="shared" si="4"/>
         <v>43210</v>
       </c>
     </row>
-    <row r="301" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B301" s="2">
         <f t="shared" si="4"/>
         <v>43213</v>
       </c>
     </row>
-    <row r="302" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B302" s="2">
         <f t="shared" si="4"/>
         <v>43214</v>
       </c>
     </row>
-    <row r="303" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B303" s="2">
         <f t="shared" si="4"/>
         <v>43215</v>
       </c>
     </row>
-    <row r="304" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B304" s="2">
         <f t="shared" si="4"/>
         <v>43216</v>
       </c>
     </row>
-    <row r="305" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B305" s="2">
         <f t="shared" si="4"/>
         <v>43217</v>
       </c>
     </row>
-    <row r="306" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B306" s="2">
         <f t="shared" si="4"/>
         <v>43220</v>
       </c>
     </row>
-    <row r="307" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B307" s="2">
         <f t="shared" si="4"/>
         <v>43221</v>
       </c>
     </row>
-    <row r="308" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B308" s="2">
         <f t="shared" si="4"/>
         <v>43222</v>
       </c>
     </row>
-    <row r="309" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B309" s="2">
         <f t="shared" si="4"/>
         <v>43223</v>
       </c>
     </row>
-    <row r="310" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B310" s="2">
         <f t="shared" si="4"/>
         <v>43224</v>
       </c>
     </row>
-    <row r="311" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B311" s="2">
         <f t="shared" si="4"/>
         <v>43227</v>
       </c>
     </row>
-    <row r="312" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B312" s="2">
         <f t="shared" si="4"/>
         <v>43228</v>
       </c>
     </row>
-    <row r="313" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B313" s="2">
         <f t="shared" si="4"/>
         <v>43229</v>
       </c>
     </row>
-    <row r="314" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B314" s="2">
         <f t="shared" si="4"/>
         <v>43230</v>
       </c>
     </row>
-    <row r="315" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B315" s="2">
         <f t="shared" si="4"/>
         <v>43231</v>
       </c>
     </row>
-    <row r="316" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B316" s="2">
         <f t="shared" si="4"/>
         <v>43234</v>
       </c>
     </row>
-    <row r="317" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B317" s="2">
         <f t="shared" si="4"/>
         <v>43235</v>
       </c>
     </row>
-    <row r="318" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B318" s="2">
         <f t="shared" si="4"/>
         <v>43236</v>
       </c>
     </row>
-    <row r="319" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B319" s="2">
         <f t="shared" si="4"/>
         <v>43237</v>
       </c>
     </row>
-    <row r="320" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B320" s="2">
         <f t="shared" si="4"/>
         <v>43238</v>
       </c>
     </row>
-    <row r="321" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B321" s="2">
         <f t="shared" si="4"/>
         <v>43241</v>
       </c>
     </row>
-    <row r="322" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B322" s="2">
         <f t="shared" si="4"/>
         <v>43242</v>
       </c>
     </row>
-    <row r="323" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B323" s="2">
         <f t="shared" si="4"/>
         <v>43243</v>
       </c>
     </row>
-    <row r="324" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B324" s="2">
         <f t="shared" si="4"/>
         <v>43244</v>
       </c>
     </row>
-    <row r="325" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B325" s="2">
         <f t="shared" ref="B325:B356" si="5">WORKDAY(B324,1)</f>
         <v>43245</v>
       </c>
     </row>
-    <row r="326" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B326" s="2">
         <f t="shared" si="5"/>
         <v>43248</v>
       </c>
     </row>
-    <row r="327" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B327" s="2">
         <f t="shared" si="5"/>
         <v>43249</v>
       </c>
     </row>
-    <row r="328" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B328" s="2">
         <f t="shared" si="5"/>
         <v>43250</v>
       </c>
     </row>
-    <row r="329" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B329" s="2">
         <f t="shared" si="5"/>
         <v>43251</v>
       </c>
     </row>
-    <row r="330" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B330" s="2">
         <f t="shared" si="5"/>
         <v>43252</v>
       </c>
     </row>
-    <row r="331" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B331" s="2">
         <f t="shared" si="5"/>
         <v>43255</v>
       </c>
     </row>
-    <row r="332" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B332" s="2">
         <f t="shared" si="5"/>
         <v>43256</v>
       </c>
     </row>
-    <row r="333" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B333" s="2">
         <f t="shared" si="5"/>
         <v>43257</v>
       </c>
     </row>
-    <row r="334" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B334" s="2">
         <f t="shared" si="5"/>
         <v>43258</v>
       </c>
     </row>
-    <row r="335" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B335" s="2">
         <f t="shared" si="5"/>
         <v>43259</v>
       </c>
     </row>
-    <row r="336" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B336" s="2">
         <f t="shared" si="5"/>
         <v>43262</v>
       </c>
     </row>
-    <row r="337" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B337" s="2">
         <f t="shared" si="5"/>
         <v>43263</v>
       </c>
     </row>
-    <row r="338" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B338" s="2">
         <f t="shared" si="5"/>
         <v>43264</v>
       </c>
     </row>
-    <row r="339" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B339" s="2">
         <f t="shared" si="5"/>
         <v>43265</v>
       </c>
     </row>
-    <row r="340" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B340" s="2">
         <f t="shared" si="5"/>
         <v>43266</v>
       </c>
     </row>
-    <row r="341" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B341" s="2">
         <f t="shared" si="5"/>
         <v>43269</v>
       </c>
     </row>
-    <row r="342" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B342" s="2">
         <f t="shared" si="5"/>
         <v>43270</v>
       </c>
     </row>
-    <row r="343" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B343" s="2">
         <f t="shared" si="5"/>
         <v>43271</v>
       </c>
     </row>
-    <row r="344" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B344" s="2">
         <f t="shared" si="5"/>
         <v>43272</v>
       </c>
     </row>
-    <row r="345" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B345" s="2">
         <f t="shared" si="5"/>
         <v>43273</v>
       </c>
     </row>
-    <row r="346" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B346" s="2">
         <f t="shared" si="5"/>
         <v>43276</v>
       </c>
     </row>
-    <row r="347" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B347" s="2">
         <f t="shared" si="5"/>
         <v>43277</v>
       </c>
     </row>
-    <row r="348" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B348" s="2">
         <f t="shared" si="5"/>
         <v>43278</v>
       </c>
     </row>
-    <row r="349" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B349" s="2">
         <f t="shared" si="5"/>
         <v>43279</v>
       </c>
     </row>
-    <row r="350" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B350" s="2">
         <f t="shared" si="5"/>
         <v>43280</v>
       </c>
     </row>
-    <row r="351" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B351" s="2">
         <f t="shared" si="5"/>
         <v>43283</v>
       </c>
     </row>
-    <row r="352" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B352" s="2">
         <f t="shared" si="5"/>
         <v>43284</v>
       </c>
     </row>
-    <row r="353" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B353" s="2">
         <f t="shared" si="5"/>
         <v>43285</v>
       </c>
     </row>
-    <row r="354" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B354" s="2">
         <f t="shared" si="5"/>
         <v>43286</v>
       </c>
     </row>
-    <row r="355" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B355" s="2">
         <f t="shared" si="5"/>
         <v>43287</v>
       </c>
     </row>
-    <row r="356" spans="2:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B356" s="2">
         <f t="shared" si="5"/>
         <v>43290</v>
@@ -3178,21 +3661,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E356"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68:D88"/>
+    <sheetView showGridLines="0" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.85" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="11.9296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="24.73046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="90.3984375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3206,7 +3689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="2">
         <v>42797</v>
       </c>
@@ -3220,7 +3703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <f>WORKDAY(B3,1)</f>
         <v>42800</v>
@@ -3235,7 +3718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B68" si="0">WORKDAY(B4,1)</f>
         <v>42801</v>
@@ -3250,7 +3733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>42802</v>
@@ -3265,7 +3748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>42803</v>
@@ -3280,7 +3763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>42804</v>
@@ -3295,7 +3778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>42807</v>
@@ -3310,7 +3793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>42808</v>
@@ -3325,7 +3808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>42809</v>
@@ -3340,7 +3823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>42810</v>
@@ -3355,7 +3838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>42811</v>
@@ -3370,7 +3853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>42814</v>
@@ -3385,7 +3868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>42815</v>
@@ -3400,7 +3883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>42816</v>
@@ -3415,7 +3898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>42817</v>
@@ -3430,7 +3913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>42818</v>
@@ -3445,7 +3928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>42821</v>
@@ -3460,7 +3943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>42822</v>
@@ -3475,7 +3958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>42823</v>
@@ -3490,7 +3973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>42824</v>
@@ -3505,7 +3988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>42825</v>
@@ -3520,7 +4003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>42828</v>
@@ -3535,7 +4018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>42829</v>
@@ -3550,7 +4033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>42830</v>
@@ -3565,7 +4048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>42831</v>
@@ -3580,7 +4063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>42832</v>
@@ -3595,7 +4078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>42835</v>
@@ -3610,7 +4093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>42836</v>
@@ -3625,7 +4108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>42837</v>
@@ -3640,7 +4123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>42838</v>
@@ -3655,7 +4138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>42839</v>
@@ -3670,7 +4153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>42842</v>
@@ -3685,7 +4168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>42843</v>
@@ -3700,7 +4183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>42844</v>
@@ -3715,7 +4198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>42845</v>
@@ -3730,7 +4213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>42846</v>
@@ -3745,7 +4228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>42849</v>
@@ -3760,7 +4243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>42850</v>
@@ -3775,7 +4258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>42851</v>
@@ -3790,7 +4273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>42852</v>
@@ -3805,7 +4288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>42853</v>
@@ -3820,7 +4303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -3835,7 +4318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>42857</v>
@@ -3850,7 +4333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>42858</v>
@@ -3865,7 +4348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>42859</v>
@@ -3880,7 +4363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>42860</v>
@@ -3895,7 +4378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>42863</v>
@@ -3910,7 +4393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>42864</v>
@@ -3925,7 +4408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>42865</v>
@@ -3940,7 +4423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>42866</v>
@@ -3955,7 +4438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>42867</v>
@@ -3970,7 +4453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>42870</v>
@@ -3985,7 +4468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>42871</v>
@@ -4000,7 +4483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>42872</v>
@@ -4015,7 +4498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>42873</v>
@@ -4030,7 +4513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>42874</v>
@@ -4045,7 +4528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>42877</v>
@@ -4060,7 +4543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>42878</v>
@@ -4075,7 +4558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>42879</v>
@@ -4090,7 +4573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>42880</v>
@@ -4105,7 +4588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>42881</v>
@@ -4120,7 +4603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>42884</v>
@@ -4135,7 +4618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>42885</v>
@@ -4150,7 +4633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B66" s="2">
         <f t="shared" si="0"/>
         <v>42886</v>
@@ -4165,13 +4648,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B67" s="2">
         <f t="shared" si="0"/>
         <v>42887</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B68" s="2">
         <f t="shared" si="0"/>
         <v>42888</v>
@@ -4186,7 +4669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B69" s="2">
         <f t="shared" ref="B69:B132" si="1">WORKDAY(B68,1)</f>
         <v>42891</v>
@@ -4201,7 +4684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B70" s="2">
         <f t="shared" si="1"/>
         <v>42892</v>
@@ -4216,7 +4699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B71" s="2">
         <f t="shared" si="1"/>
         <v>42893</v>
@@ -4231,7 +4714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B72" s="2">
         <f t="shared" si="1"/>
         <v>42894</v>
@@ -4246,7 +4729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B73" s="2">
         <f t="shared" si="1"/>
         <v>42895</v>
@@ -4261,7 +4744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B74" s="2">
         <f t="shared" si="1"/>
         <v>42898</v>
@@ -4276,7 +4759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B75" s="2">
         <f t="shared" si="1"/>
         <v>42899</v>
@@ -4291,7 +4774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B76" s="2">
         <f t="shared" si="1"/>
         <v>42900</v>
@@ -4306,7 +4789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B77" s="2">
         <f t="shared" si="1"/>
         <v>42901</v>
@@ -4321,7 +4804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B78" s="2">
         <f t="shared" si="1"/>
         <v>42902</v>
@@ -4336,7 +4819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B79" s="2">
         <f t="shared" si="1"/>
         <v>42905</v>
@@ -4351,7 +4834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B80" s="2">
         <f t="shared" si="1"/>
         <v>42906</v>
@@ -4366,7 +4849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B81" s="2">
         <f t="shared" si="1"/>
         <v>42907</v>
@@ -4381,7 +4864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B82" s="2">
         <f t="shared" si="1"/>
         <v>42908</v>
@@ -4396,7 +4879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B83" s="2">
         <f t="shared" si="1"/>
         <v>42909</v>
@@ -4411,7 +4894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B84" s="2">
         <f t="shared" si="1"/>
         <v>42912</v>
@@ -4426,7 +4909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B85" s="2">
         <f t="shared" si="1"/>
         <v>42913</v>
@@ -4441,7 +4924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B86" s="2">
         <f t="shared" si="1"/>
         <v>42914</v>
@@ -4456,7 +4939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B87" s="2">
         <f t="shared" si="1"/>
         <v>42915</v>
@@ -4471,7 +4954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B88" s="2">
         <f t="shared" si="1"/>
         <v>42916</v>
@@ -4486,1609 +4969,1861 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B89" s="2">
         <f t="shared" si="1"/>
         <v>42919</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B90" s="2">
         <f t="shared" si="1"/>
         <v>42920</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B91" s="2">
         <f t="shared" si="1"/>
         <v>42921</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B92" s="2">
         <f t="shared" si="1"/>
         <v>42922</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B93" s="2">
         <f t="shared" si="1"/>
         <v>42923</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B94" s="2">
         <f t="shared" si="1"/>
         <v>42926</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B95" s="2">
         <f t="shared" si="1"/>
         <v>42927</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B96" s="2">
         <f t="shared" si="1"/>
         <v>42928</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B97" s="2">
         <f t="shared" si="1"/>
         <v>42929</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B98" s="2">
         <f t="shared" si="1"/>
         <v>42930</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B99" s="2">
         <f t="shared" si="1"/>
         <v>42933</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B100" s="2">
         <f t="shared" si="1"/>
         <v>42934</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B101" s="2">
         <f t="shared" si="1"/>
         <v>42935</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B102" s="2">
         <f t="shared" si="1"/>
         <v>42936</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B103" s="2">
         <f t="shared" si="1"/>
         <v>42937</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B104" s="2">
         <f t="shared" si="1"/>
         <v>42940</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B105" s="2">
         <f t="shared" si="1"/>
         <v>42941</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B106" s="2">
         <f t="shared" si="1"/>
         <v>42942</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B107" s="2">
         <f t="shared" si="1"/>
         <v>42943</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B108" s="2">
         <f t="shared" si="1"/>
         <v>42944</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B109" s="2">
         <f t="shared" si="1"/>
         <v>42947</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B110" s="2">
         <f t="shared" si="1"/>
         <v>42948</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B111" s="2">
         <f t="shared" si="1"/>
         <v>42949</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B112" s="2">
         <f t="shared" si="1"/>
         <v>42950</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B113" s="2">
         <f t="shared" si="1"/>
         <v>42951</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B114" s="2">
         <f t="shared" si="1"/>
         <v>42954</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B115" s="2">
         <f t="shared" si="1"/>
         <v>42955</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B116" s="2">
         <f t="shared" si="1"/>
         <v>42956</v>
       </c>
-    </row>
-    <row r="117" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B117" s="2">
         <f t="shared" si="1"/>
         <v>42957</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B118" s="2">
         <f t="shared" si="1"/>
         <v>42958</v>
       </c>
     </row>
-    <row r="119" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B119" s="2">
         <f t="shared" si="1"/>
         <v>42961</v>
       </c>
     </row>
-    <row r="120" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B120" s="2">
         <f t="shared" si="1"/>
         <v>42962</v>
       </c>
     </row>
-    <row r="121" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B121" s="2">
         <f t="shared" si="1"/>
         <v>42963</v>
       </c>
     </row>
-    <row r="122" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B122" s="2">
         <f t="shared" si="1"/>
         <v>42964</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B123" s="2">
         <f t="shared" si="1"/>
         <v>42965</v>
       </c>
     </row>
-    <row r="124" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B124" s="2">
         <f t="shared" si="1"/>
         <v>42968</v>
       </c>
     </row>
-    <row r="125" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B125" s="2">
         <f t="shared" si="1"/>
         <v>42969</v>
       </c>
     </row>
-    <row r="126" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B126" s="2">
         <f t="shared" si="1"/>
         <v>42970</v>
       </c>
     </row>
-    <row r="127" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B127" s="2">
         <f t="shared" si="1"/>
         <v>42971</v>
       </c>
     </row>
-    <row r="128" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B128" s="2">
         <f t="shared" si="1"/>
         <v>42972</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B129" s="2">
         <f t="shared" si="1"/>
         <v>42975</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B130" s="2">
         <f t="shared" si="1"/>
         <v>42976</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B131" s="2">
         <f t="shared" si="1"/>
         <v>42977</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B132" s="2">
         <f t="shared" si="1"/>
         <v>42978</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B133" s="2">
         <f t="shared" ref="B133:B196" si="2">WORKDAY(B132,1)</f>
         <v>42979</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B134" s="2">
         <f t="shared" si="2"/>
         <v>42982</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B135" s="2">
         <f t="shared" si="2"/>
         <v>42983</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B136" s="2">
         <f t="shared" si="2"/>
         <v>42984</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B137" s="2">
         <f t="shared" si="2"/>
         <v>42985</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B138" s="2">
         <f t="shared" si="2"/>
         <v>42986</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B139" s="2">
         <f t="shared" si="2"/>
         <v>42989</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B140" s="2">
         <f t="shared" si="2"/>
         <v>42990</v>
       </c>
     </row>
-    <row r="141" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B141" s="2">
         <f t="shared" si="2"/>
         <v>42991</v>
       </c>
     </row>
-    <row r="142" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B142" s="2">
         <f t="shared" si="2"/>
         <v>42992</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B143" s="2">
         <f t="shared" si="2"/>
         <v>42993</v>
       </c>
     </row>
-    <row r="144" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B144" s="2">
         <f t="shared" si="2"/>
         <v>42996</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B145" s="2">
         <f t="shared" si="2"/>
         <v>42997</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B146" s="2">
         <f t="shared" si="2"/>
         <v>42998</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B147" s="2">
         <f t="shared" si="2"/>
         <v>42999</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B148" s="2">
         <f t="shared" si="2"/>
         <v>43000</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B149" s="2">
         <f t="shared" si="2"/>
         <v>43003</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B150" s="2">
         <f t="shared" si="2"/>
         <v>43004</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B151" s="2">
         <f t="shared" si="2"/>
         <v>43005</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B152" s="2">
         <f t="shared" si="2"/>
         <v>43006</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B153" s="2">
         <f t="shared" si="2"/>
         <v>43007</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B154" s="2">
         <f t="shared" si="2"/>
         <v>43010</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B155" s="2">
         <f t="shared" si="2"/>
         <v>43011</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B156" s="2">
         <f t="shared" si="2"/>
         <v>43012</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B157" s="2">
         <f t="shared" si="2"/>
         <v>43013</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B158" s="2">
         <f t="shared" si="2"/>
         <v>43014</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B159" s="2">
         <f t="shared" si="2"/>
         <v>43017</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B160" s="2">
         <f t="shared" si="2"/>
         <v>43018</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B161" s="2">
         <f t="shared" si="2"/>
         <v>43019</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B162" s="2">
         <f t="shared" si="2"/>
         <v>43020</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B163" s="2">
         <f t="shared" si="2"/>
         <v>43021</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B164" s="2">
         <f t="shared" si="2"/>
         <v>43024</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B165" s="2">
         <f t="shared" si="2"/>
         <v>43025</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B166" s="2">
         <f t="shared" si="2"/>
         <v>43026</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B167" s="2">
         <f t="shared" si="2"/>
         <v>43027</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B168" s="2">
         <f t="shared" si="2"/>
         <v>43028</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B169" s="2">
         <f t="shared" si="2"/>
         <v>43031</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B170" s="2">
         <f t="shared" si="2"/>
         <v>43032</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B171" s="2">
         <f t="shared" si="2"/>
         <v>43033</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B172" s="2">
         <f t="shared" si="2"/>
         <v>43034</v>
       </c>
     </row>
-    <row r="173" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B173" s="2">
         <f t="shared" si="2"/>
         <v>43035</v>
       </c>
     </row>
-    <row r="174" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B174" s="2">
         <f t="shared" si="2"/>
         <v>43038</v>
       </c>
     </row>
-    <row r="175" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B175" s="2">
         <f t="shared" si="2"/>
         <v>43039</v>
       </c>
     </row>
-    <row r="176" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B176" s="2">
         <f t="shared" si="2"/>
         <v>43040</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B177" s="2">
         <f t="shared" si="2"/>
         <v>43041</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B178" s="2">
         <f t="shared" si="2"/>
         <v>43042</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B179" s="2">
         <f t="shared" si="2"/>
         <v>43045</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B180" s="2">
         <f t="shared" si="2"/>
         <v>43046</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B181" s="2">
         <f t="shared" si="2"/>
         <v>43047</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B182" s="2">
         <f t="shared" si="2"/>
         <v>43048</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B183" s="2">
         <f t="shared" si="2"/>
         <v>43049</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B184" s="2">
         <f t="shared" si="2"/>
         <v>43052</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B185" s="2">
         <f t="shared" si="2"/>
         <v>43053</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B186" s="2">
         <f t="shared" si="2"/>
         <v>43054</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B187" s="2">
         <f t="shared" si="2"/>
         <v>43055</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B188" s="2">
         <f t="shared" si="2"/>
         <v>43056</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B189" s="2">
         <f t="shared" si="2"/>
         <v>43059</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B190" s="2">
         <f t="shared" si="2"/>
         <v>43060</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B191" s="2">
         <f t="shared" si="2"/>
         <v>43061</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B192" s="2">
         <f t="shared" si="2"/>
         <v>43062</v>
       </c>
     </row>
-    <row r="193" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B193" s="2">
         <f t="shared" si="2"/>
         <v>43063</v>
       </c>
     </row>
-    <row r="194" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B194" s="2">
         <f t="shared" si="2"/>
         <v>43066</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B195" s="2">
         <f t="shared" si="2"/>
         <v>43067</v>
       </c>
     </row>
-    <row r="196" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B196" s="2">
         <f t="shared" si="2"/>
         <v>43068</v>
       </c>
     </row>
-    <row r="197" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B197" s="2">
         <f t="shared" ref="B197:B260" si="3">WORKDAY(B196,1)</f>
         <v>43069</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B198" s="2">
         <f t="shared" si="3"/>
         <v>43070</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B199" s="2">
         <f t="shared" si="3"/>
         <v>43073</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B200" s="2">
         <f t="shared" si="3"/>
         <v>43074</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B201" s="2">
         <f t="shared" si="3"/>
         <v>43075</v>
       </c>
     </row>
-    <row r="202" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B202" s="2">
         <f t="shared" si="3"/>
         <v>43076</v>
       </c>
     </row>
-    <row r="203" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B203" s="2">
         <f t="shared" si="3"/>
         <v>43077</v>
       </c>
     </row>
-    <row r="204" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B204" s="2">
         <f t="shared" si="3"/>
         <v>43080</v>
       </c>
     </row>
-    <row r="205" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B205" s="2">
         <f t="shared" si="3"/>
         <v>43081</v>
       </c>
     </row>
-    <row r="206" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B206" s="2">
         <f t="shared" si="3"/>
         <v>43082</v>
       </c>
     </row>
-    <row r="207" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B207" s="2">
         <f t="shared" si="3"/>
         <v>43083</v>
       </c>
     </row>
-    <row r="208" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B208" s="2">
         <f t="shared" si="3"/>
         <v>43084</v>
       </c>
     </row>
-    <row r="209" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B209" s="2">
         <f t="shared" si="3"/>
         <v>43087</v>
       </c>
     </row>
-    <row r="210" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B210" s="2">
         <f t="shared" si="3"/>
         <v>43088</v>
       </c>
     </row>
-    <row r="211" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B211" s="2">
         <f t="shared" si="3"/>
         <v>43089</v>
       </c>
     </row>
-    <row r="212" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B212" s="2">
         <f t="shared" si="3"/>
         <v>43090</v>
       </c>
     </row>
-    <row r="213" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B213" s="2">
         <f t="shared" si="3"/>
         <v>43091</v>
       </c>
     </row>
-    <row r="214" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B214" s="2">
         <f t="shared" si="3"/>
         <v>43094</v>
       </c>
     </row>
-    <row r="215" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B215" s="2">
         <f t="shared" si="3"/>
         <v>43095</v>
       </c>
     </row>
-    <row r="216" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B216" s="2">
         <f t="shared" si="3"/>
         <v>43096</v>
       </c>
     </row>
-    <row r="217" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B217" s="2">
         <f t="shared" si="3"/>
         <v>43097</v>
       </c>
     </row>
-    <row r="218" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B218" s="2">
         <f t="shared" si="3"/>
         <v>43098</v>
       </c>
     </row>
-    <row r="219" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B219" s="2">
         <f t="shared" si="3"/>
         <v>43101</v>
       </c>
     </row>
-    <row r="220" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B220" s="2">
         <f t="shared" si="3"/>
         <v>43102</v>
       </c>
     </row>
-    <row r="221" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B221" s="2">
         <f t="shared" si="3"/>
         <v>43103</v>
       </c>
     </row>
-    <row r="222" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B222" s="2">
         <f t="shared" si="3"/>
         <v>43104</v>
       </c>
     </row>
-    <row r="223" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B223" s="2">
         <f t="shared" si="3"/>
         <v>43105</v>
       </c>
     </row>
-    <row r="224" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B224" s="2">
         <f t="shared" si="3"/>
         <v>43108</v>
       </c>
     </row>
-    <row r="225" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B225" s="2">
         <f t="shared" si="3"/>
         <v>43109</v>
       </c>
     </row>
-    <row r="226" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B226" s="2">
         <f t="shared" si="3"/>
         <v>43110</v>
       </c>
     </row>
-    <row r="227" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B227" s="2">
         <f t="shared" si="3"/>
         <v>43111</v>
       </c>
     </row>
-    <row r="228" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B228" s="2">
         <f t="shared" si="3"/>
         <v>43112</v>
       </c>
     </row>
-    <row r="229" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B229" s="2">
         <f t="shared" si="3"/>
         <v>43115</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B230" s="2">
         <f t="shared" si="3"/>
         <v>43116</v>
       </c>
     </row>
-    <row r="231" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B231" s="2">
         <f t="shared" si="3"/>
         <v>43117</v>
       </c>
     </row>
-    <row r="232" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B232" s="2">
         <f t="shared" si="3"/>
         <v>43118</v>
       </c>
     </row>
-    <row r="233" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B233" s="2">
         <f t="shared" si="3"/>
         <v>43119</v>
       </c>
     </row>
-    <row r="234" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B234" s="2">
         <f t="shared" si="3"/>
         <v>43122</v>
       </c>
     </row>
-    <row r="235" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B235" s="2">
         <f t="shared" si="3"/>
         <v>43123</v>
       </c>
     </row>
-    <row r="236" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B236" s="2">
         <f t="shared" si="3"/>
         <v>43124</v>
       </c>
     </row>
-    <row r="237" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B237" s="2">
         <f t="shared" si="3"/>
         <v>43125</v>
       </c>
     </row>
-    <row r="238" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B238" s="2">
         <f t="shared" si="3"/>
         <v>43126</v>
       </c>
     </row>
-    <row r="239" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B239" s="2">
         <f t="shared" si="3"/>
         <v>43129</v>
       </c>
     </row>
-    <row r="240" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B240" s="2">
         <f t="shared" si="3"/>
         <v>43130</v>
       </c>
     </row>
-    <row r="241" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B241" s="2">
         <f t="shared" si="3"/>
         <v>43131</v>
       </c>
     </row>
-    <row r="242" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B242" s="2">
         <f t="shared" si="3"/>
         <v>43132</v>
       </c>
     </row>
-    <row r="243" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B243" s="2">
         <f t="shared" si="3"/>
         <v>43133</v>
       </c>
     </row>
-    <row r="244" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B244" s="2">
         <f t="shared" si="3"/>
         <v>43136</v>
       </c>
     </row>
-    <row r="245" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B245" s="2">
         <f t="shared" si="3"/>
         <v>43137</v>
       </c>
     </row>
-    <row r="246" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B246" s="2">
         <f t="shared" si="3"/>
         <v>43138</v>
       </c>
     </row>
-    <row r="247" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B247" s="2">
         <f t="shared" si="3"/>
         <v>43139</v>
       </c>
     </row>
-    <row r="248" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B248" s="2">
         <f t="shared" si="3"/>
         <v>43140</v>
       </c>
     </row>
-    <row r="249" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B249" s="2">
         <f t="shared" si="3"/>
         <v>43143</v>
       </c>
     </row>
-    <row r="250" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B250" s="2">
         <f t="shared" si="3"/>
         <v>43144</v>
       </c>
     </row>
-    <row r="251" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B251" s="2">
         <f t="shared" si="3"/>
         <v>43145</v>
       </c>
     </row>
-    <row r="252" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B252" s="2">
         <f t="shared" si="3"/>
         <v>43146</v>
       </c>
     </row>
-    <row r="253" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B253" s="2">
         <f t="shared" si="3"/>
         <v>43147</v>
       </c>
     </row>
-    <row r="254" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B254" s="2">
         <f t="shared" si="3"/>
         <v>43150</v>
       </c>
     </row>
-    <row r="255" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B255" s="2">
         <f t="shared" si="3"/>
         <v>43151</v>
       </c>
     </row>
-    <row r="256" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B256" s="2">
         <f t="shared" si="3"/>
         <v>43152</v>
       </c>
     </row>
-    <row r="257" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B257" s="2">
         <f t="shared" si="3"/>
         <v>43153</v>
       </c>
     </row>
-    <row r="258" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B258" s="2">
         <f t="shared" si="3"/>
         <v>43154</v>
       </c>
     </row>
-    <row r="259" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B259" s="2">
         <f t="shared" si="3"/>
         <v>43157</v>
       </c>
     </row>
-    <row r="260" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B260" s="2">
         <f t="shared" si="3"/>
         <v>43158</v>
       </c>
     </row>
-    <row r="261" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B261" s="2">
         <f t="shared" ref="B261:B324" si="4">WORKDAY(B260,1)</f>
         <v>43159</v>
       </c>
     </row>
-    <row r="262" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B262" s="2">
         <f t="shared" si="4"/>
         <v>43160</v>
       </c>
     </row>
-    <row r="263" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B263" s="2">
         <f t="shared" si="4"/>
         <v>43161</v>
       </c>
     </row>
-    <row r="264" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B264" s="2">
         <f t="shared" si="4"/>
         <v>43164</v>
       </c>
     </row>
-    <row r="265" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B265" s="2">
         <f t="shared" si="4"/>
         <v>43165</v>
       </c>
     </row>
-    <row r="266" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B266" s="2">
         <f t="shared" si="4"/>
         <v>43166</v>
       </c>
     </row>
-    <row r="267" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B267" s="2">
         <f t="shared" si="4"/>
         <v>43167</v>
       </c>
     </row>
-    <row r="268" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B268" s="2">
         <f t="shared" si="4"/>
         <v>43168</v>
       </c>
     </row>
-    <row r="269" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B269" s="2">
         <f t="shared" si="4"/>
         <v>43171</v>
       </c>
     </row>
-    <row r="270" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B270" s="2">
         <f t="shared" si="4"/>
         <v>43172</v>
       </c>
     </row>
-    <row r="271" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B271" s="2">
         <f t="shared" si="4"/>
         <v>43173</v>
       </c>
     </row>
-    <row r="272" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B272" s="2">
         <f t="shared" si="4"/>
         <v>43174</v>
       </c>
     </row>
-    <row r="273" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B273" s="2">
         <f t="shared" si="4"/>
         <v>43175</v>
       </c>
     </row>
-    <row r="274" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B274" s="2">
         <f t="shared" si="4"/>
         <v>43178</v>
       </c>
     </row>
-    <row r="275" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B275" s="2">
         <f t="shared" si="4"/>
         <v>43179</v>
       </c>
     </row>
-    <row r="276" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B276" s="2">
         <f t="shared" si="4"/>
         <v>43180</v>
       </c>
     </row>
-    <row r="277" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B277" s="2">
         <f t="shared" si="4"/>
         <v>43181</v>
       </c>
     </row>
-    <row r="278" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B278" s="2">
         <f t="shared" si="4"/>
         <v>43182</v>
       </c>
     </row>
-    <row r="279" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B279" s="2">
         <f t="shared" si="4"/>
         <v>43185</v>
       </c>
     </row>
-    <row r="280" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B280" s="2">
         <f t="shared" si="4"/>
         <v>43186</v>
       </c>
     </row>
-    <row r="281" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B281" s="2">
         <f t="shared" si="4"/>
         <v>43187</v>
       </c>
     </row>
-    <row r="282" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B282" s="2">
         <f t="shared" si="4"/>
         <v>43188</v>
       </c>
     </row>
-    <row r="283" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B283" s="2">
         <f t="shared" si="4"/>
         <v>43189</v>
       </c>
     </row>
-    <row r="284" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B284" s="2">
         <f t="shared" si="4"/>
         <v>43192</v>
       </c>
     </row>
-    <row r="285" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B285" s="2">
         <f t="shared" si="4"/>
         <v>43193</v>
       </c>
     </row>
-    <row r="286" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B286" s="2">
         <f t="shared" si="4"/>
         <v>43194</v>
       </c>
     </row>
-    <row r="287" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B287" s="2">
         <f t="shared" si="4"/>
         <v>43195</v>
       </c>
     </row>
-    <row r="288" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B288" s="2">
         <f t="shared" si="4"/>
         <v>43196</v>
       </c>
     </row>
-    <row r="289" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B289" s="2">
         <f t="shared" si="4"/>
         <v>43199</v>
       </c>
     </row>
-    <row r="290" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B290" s="2">
         <f t="shared" si="4"/>
         <v>43200</v>
       </c>
     </row>
-    <row r="291" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B291" s="2">
         <f t="shared" si="4"/>
         <v>43201</v>
       </c>
     </row>
-    <row r="292" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B292" s="2">
         <f t="shared" si="4"/>
         <v>43202</v>
       </c>
     </row>
-    <row r="293" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B293" s="2">
         <f t="shared" si="4"/>
         <v>43203</v>
       </c>
     </row>
-    <row r="294" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B294" s="2">
         <f t="shared" si="4"/>
         <v>43206</v>
       </c>
     </row>
-    <row r="295" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B295" s="2">
         <f t="shared" si="4"/>
         <v>43207</v>
       </c>
     </row>
-    <row r="296" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B296" s="2">
         <f t="shared" si="4"/>
         <v>43208</v>
       </c>
     </row>
-    <row r="297" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B297" s="2">
         <f t="shared" si="4"/>
         <v>43209</v>
       </c>
     </row>
-    <row r="298" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B298" s="2">
         <f t="shared" si="4"/>
         <v>43210</v>
       </c>
     </row>
-    <row r="299" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B299" s="2">
         <f t="shared" si="4"/>
         <v>43213</v>
       </c>
     </row>
-    <row r="300" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B300" s="2">
         <f t="shared" si="4"/>
         <v>43214</v>
       </c>
     </row>
-    <row r="301" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B301" s="2">
         <f t="shared" si="4"/>
         <v>43215</v>
       </c>
     </row>
-    <row r="302" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B302" s="2">
         <f t="shared" si="4"/>
         <v>43216</v>
       </c>
     </row>
-    <row r="303" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B303" s="2">
         <f t="shared" si="4"/>
         <v>43217</v>
       </c>
     </row>
-    <row r="304" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B304" s="2">
         <f t="shared" si="4"/>
         <v>43220</v>
       </c>
     </row>
-    <row r="305" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B305" s="2">
         <f t="shared" si="4"/>
         <v>43221</v>
       </c>
     </row>
-    <row r="306" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B306" s="2">
         <f t="shared" si="4"/>
         <v>43222</v>
       </c>
     </row>
-    <row r="307" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B307" s="2">
         <f t="shared" si="4"/>
         <v>43223</v>
       </c>
     </row>
-    <row r="308" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B308" s="2">
         <f t="shared" si="4"/>
         <v>43224</v>
       </c>
     </row>
-    <row r="309" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B309" s="2">
         <f t="shared" si="4"/>
         <v>43227</v>
       </c>
     </row>
-    <row r="310" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B310" s="2">
         <f t="shared" si="4"/>
         <v>43228</v>
       </c>
     </row>
-    <row r="311" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B311" s="2">
         <f t="shared" si="4"/>
         <v>43229</v>
       </c>
     </row>
-    <row r="312" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B312" s="2">
         <f t="shared" si="4"/>
         <v>43230</v>
       </c>
     </row>
-    <row r="313" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B313" s="2">
         <f t="shared" si="4"/>
         <v>43231</v>
       </c>
     </row>
-    <row r="314" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B314" s="2">
         <f t="shared" si="4"/>
         <v>43234</v>
       </c>
     </row>
-    <row r="315" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B315" s="2">
         <f t="shared" si="4"/>
         <v>43235</v>
       </c>
     </row>
-    <row r="316" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B316" s="2">
         <f t="shared" si="4"/>
         <v>43236</v>
       </c>
     </row>
-    <row r="317" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B317" s="2">
         <f t="shared" si="4"/>
         <v>43237</v>
       </c>
     </row>
-    <row r="318" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B318" s="2">
         <f t="shared" si="4"/>
         <v>43238</v>
       </c>
     </row>
-    <row r="319" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B319" s="2">
         <f t="shared" si="4"/>
         <v>43241</v>
       </c>
     </row>
-    <row r="320" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B320" s="2">
         <f t="shared" si="4"/>
         <v>43242</v>
       </c>
     </row>
-    <row r="321" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B321" s="2">
         <f t="shared" si="4"/>
         <v>43243</v>
       </c>
     </row>
-    <row r="322" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B322" s="2">
         <f t="shared" si="4"/>
         <v>43244</v>
       </c>
     </row>
-    <row r="323" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B323" s="2">
         <f t="shared" si="4"/>
         <v>43245</v>
       </c>
     </row>
-    <row r="324" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B324" s="2">
         <f t="shared" si="4"/>
         <v>43248</v>
       </c>
     </row>
-    <row r="325" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B325" s="2">
         <f t="shared" ref="B325:B356" si="5">WORKDAY(B324,1)</f>
         <v>43249</v>
       </c>
     </row>
-    <row r="326" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B326" s="2">
         <f t="shared" si="5"/>
         <v>43250</v>
       </c>
     </row>
-    <row r="327" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B327" s="2">
         <f t="shared" si="5"/>
         <v>43251</v>
       </c>
     </row>
-    <row r="328" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B328" s="2">
         <f t="shared" si="5"/>
         <v>43252</v>
       </c>
     </row>
-    <row r="329" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B329" s="2">
         <f t="shared" si="5"/>
         <v>43255</v>
       </c>
     </row>
-    <row r="330" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B330" s="2">
         <f t="shared" si="5"/>
         <v>43256</v>
       </c>
     </row>
-    <row r="331" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B331" s="2">
         <f t="shared" si="5"/>
         <v>43257</v>
       </c>
     </row>
-    <row r="332" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B332" s="2">
         <f t="shared" si="5"/>
         <v>43258</v>
       </c>
     </row>
-    <row r="333" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B333" s="2">
         <f t="shared" si="5"/>
         <v>43259</v>
       </c>
     </row>
-    <row r="334" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B334" s="2">
         <f t="shared" si="5"/>
         <v>43262</v>
       </c>
     </row>
-    <row r="335" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B335" s="2">
         <f t="shared" si="5"/>
         <v>43263</v>
       </c>
     </row>
-    <row r="336" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B336" s="2">
         <f t="shared" si="5"/>
         <v>43264</v>
       </c>
     </row>
-    <row r="337" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B337" s="2">
         <f t="shared" si="5"/>
         <v>43265</v>
       </c>
     </row>
-    <row r="338" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B338" s="2">
         <f t="shared" si="5"/>
         <v>43266</v>
       </c>
     </row>
-    <row r="339" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B339" s="2">
         <f t="shared" si="5"/>
         <v>43269</v>
       </c>
     </row>
-    <row r="340" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B340" s="2">
         <f t="shared" si="5"/>
         <v>43270</v>
       </c>
     </row>
-    <row r="341" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B341" s="2">
         <f t="shared" si="5"/>
         <v>43271</v>
       </c>
     </row>
-    <row r="342" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B342" s="2">
         <f t="shared" si="5"/>
         <v>43272</v>
       </c>
     </row>
-    <row r="343" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B343" s="2">
         <f t="shared" si="5"/>
         <v>43273</v>
       </c>
     </row>
-    <row r="344" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B344" s="2">
         <f t="shared" si="5"/>
         <v>43276</v>
       </c>
     </row>
-    <row r="345" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B345" s="2">
         <f t="shared" si="5"/>
         <v>43277</v>
       </c>
     </row>
-    <row r="346" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B346" s="2">
         <f t="shared" si="5"/>
         <v>43278</v>
       </c>
     </row>
-    <row r="347" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B347" s="2">
         <f t="shared" si="5"/>
         <v>43279</v>
       </c>
     </row>
-    <row r="348" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B348" s="2">
         <f t="shared" si="5"/>
         <v>43280</v>
       </c>
     </row>
-    <row r="349" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B349" s="2">
         <f t="shared" si="5"/>
         <v>43283</v>
       </c>
     </row>
-    <row r="350" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B350" s="2">
         <f t="shared" si="5"/>
         <v>43284</v>
       </c>
     </row>
-    <row r="351" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B351" s="2">
         <f t="shared" si="5"/>
         <v>43285</v>
       </c>
     </row>
-    <row r="352" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B352" s="2">
         <f t="shared" si="5"/>
         <v>43286</v>
       </c>
     </row>
-    <row r="353" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B353" s="2">
         <f t="shared" si="5"/>
         <v>43287</v>
       </c>
     </row>
-    <row r="354" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B354" s="2">
         <f t="shared" si="5"/>
         <v>43290</v>
       </c>
     </row>
-    <row r="355" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B355" s="2">
         <f t="shared" si="5"/>
         <v>43291</v>
       </c>
     </row>
-    <row r="356" spans="2:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B356" s="2">
         <f t="shared" si="5"/>
         <v>43292</v>
@@ -6101,24 +6836,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E356"/>
+  <dimension ref="B2:E356"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.4" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="13.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.1328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.1328125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="51.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75.73046875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6132,7 +6866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="2">
         <v>42828</v>
       </c>
@@ -6146,7 +6880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <f>WORKDAY(B3,1)</f>
         <v>42829</v>
@@ -6161,7 +6895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B68" si="0">WORKDAY(B4,1)</f>
         <v>42830</v>
@@ -6176,7 +6910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>42831</v>
@@ -6191,7 +6925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>42832</v>
@@ -6206,7 +6940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>42835</v>
@@ -6221,7 +6955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>42836</v>
@@ -6236,7 +6970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>42837</v>
@@ -6251,7 +6985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>42838</v>
@@ -6266,7 +7000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>42839</v>
@@ -6281,7 +7015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>42842</v>
@@ -6296,7 +7030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>42843</v>
@@ -6311,7 +7045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>42844</v>
@@ -6326,7 +7060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>42845</v>
@@ -6341,7 +7075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>42846</v>
@@ -6356,7 +7090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>42849</v>
@@ -6371,7 +7105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>42850</v>
@@ -6386,7 +7120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>42851</v>
@@ -6401,7 +7135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>42852</v>
@@ -6416,7 +7150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>42853</v>
@@ -6431,7 +7165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -6446,7 +7180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>42857</v>
@@ -6461,7 +7195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>42858</v>
@@ -6476,7 +7210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>42859</v>
@@ -6491,7 +7225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>42860</v>
@@ -6506,7 +7240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>42863</v>
@@ -6521,7 +7255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>42864</v>
@@ -6536,7 +7270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>42865</v>
@@ -6551,7 +7285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>42866</v>
@@ -6566,7 +7300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>42867</v>
@@ -6581,7 +7315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>42870</v>
@@ -6596,7 +7330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>42871</v>
@@ -6611,7 +7345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>42872</v>
@@ -6626,7 +7360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>42873</v>
@@ -6641,7 +7375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>42874</v>
@@ -6656,7 +7390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>42877</v>
@@ -6671,7 +7405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>42878</v>
@@ -6686,7 +7420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>42879</v>
@@ -6701,7 +7435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>42880</v>
@@ -6716,7 +7450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>42881</v>
@@ -6731,7 +7465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>42884</v>
@@ -6746,7 +7480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>42885</v>
@@ -6761,7 +7495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>42886</v>
@@ -6776,13 +7510,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>42887</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>42888</v>
@@ -6797,7 +7531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>42891</v>
@@ -6812,7 +7546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>42892</v>
@@ -6827,7 +7561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>42893</v>
@@ -6842,7 +7576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>42894</v>
@@ -6857,7 +7591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>42895</v>
@@ -6872,7 +7606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>42898</v>
@@ -6887,7 +7621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>42899</v>
@@ -6902,7 +7636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>42900</v>
@@ -6917,7 +7651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>42901</v>
@@ -6932,7 +7666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>42902</v>
@@ -6947,7 +7681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>42905</v>
@@ -6962,7 +7696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>42906</v>
@@ -6977,7 +7711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>42907</v>
@@ -6992,7 +7726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>42908</v>
@@ -7007,7 +7741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>42909</v>
@@ -7022,7 +7756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>42912</v>
@@ -7037,7 +7771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>42913</v>
@@ -7052,7 +7786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>42914</v>
@@ -7067,13 +7801,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B66" s="2">
         <f t="shared" si="0"/>
         <v>42915</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -7082,13 +7816,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B67" s="2">
         <f t="shared" si="0"/>
         <v>42916</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -7097,1735 +7831,2035 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B68" s="2">
         <f t="shared" si="0"/>
         <v>42919</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B69" s="2">
         <f t="shared" ref="B69:B132" si="1">WORKDAY(B68,1)</f>
         <v>42920</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B70" s="2">
         <f t="shared" si="1"/>
         <v>42921</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B71" s="2">
         <f t="shared" si="1"/>
         <v>42922</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B72" s="2">
         <f t="shared" si="1"/>
         <v>42923</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B73" s="2">
         <f t="shared" si="1"/>
         <v>42926</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B74" s="2">
         <f t="shared" si="1"/>
         <v>42927</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B75" s="2">
         <f t="shared" si="1"/>
         <v>42928</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B76" s="2">
         <f t="shared" si="1"/>
         <v>42929</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B77" s="2">
         <f t="shared" si="1"/>
         <v>42930</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B78" s="2">
         <f t="shared" si="1"/>
         <v>42933</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B79" s="2">
         <f t="shared" si="1"/>
         <v>42934</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B80" s="2">
         <f t="shared" si="1"/>
         <v>42935</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B81" s="2">
         <f t="shared" si="1"/>
         <v>42936</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B82" s="2">
         <f t="shared" si="1"/>
         <v>42937</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B83" s="2">
         <f t="shared" si="1"/>
         <v>42940</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B84" s="2">
         <f t="shared" si="1"/>
         <v>42941</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B85" s="2">
         <f t="shared" si="1"/>
         <v>42942</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B86" s="2">
         <f t="shared" si="1"/>
         <v>42943</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B87" s="2">
         <f t="shared" si="1"/>
         <v>42944</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B88" s="2">
         <f t="shared" si="1"/>
         <v>42947</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B89" s="2">
         <f t="shared" si="1"/>
         <v>42948</v>
       </c>
-    </row>
-    <row r="90" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B90" s="2">
         <f t="shared" si="1"/>
         <v>42949</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B91" s="2">
         <f t="shared" si="1"/>
         <v>42950</v>
       </c>
-    </row>
-    <row r="92" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B92" s="2">
         <f t="shared" si="1"/>
         <v>42951</v>
       </c>
-    </row>
-    <row r="93" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B93" s="2">
         <f t="shared" si="1"/>
         <v>42954</v>
       </c>
-    </row>
-    <row r="94" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B94" s="2">
         <f t="shared" si="1"/>
         <v>42955</v>
       </c>
-    </row>
-    <row r="95" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B95" s="2">
         <f t="shared" si="1"/>
         <v>42956</v>
       </c>
-    </row>
-    <row r="96" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B96" s="2">
         <f t="shared" si="1"/>
         <v>42957</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C96" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B97" s="2">
         <f t="shared" si="1"/>
         <v>42958</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C97" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B98" s="2">
         <f t="shared" si="1"/>
         <v>42961</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C98" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B99" s="2">
         <f t="shared" si="1"/>
         <v>42962</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C99" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B100" s="2">
         <f t="shared" si="1"/>
         <v>42963</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C100" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B101" s="2">
         <f t="shared" si="1"/>
         <v>42964</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C101" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B102" s="2">
         <f t="shared" si="1"/>
         <v>42965</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C102" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B103" s="2">
         <f t="shared" si="1"/>
         <v>42968</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C103" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B104" s="2">
         <f t="shared" si="1"/>
         <v>42969</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C104" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B105" s="2">
         <f t="shared" si="1"/>
         <v>42970</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C105" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B106" s="2">
         <f t="shared" si="1"/>
         <v>42971</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C106" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B107" s="2">
         <f t="shared" si="1"/>
         <v>42972</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C107" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B108" s="2">
         <f t="shared" si="1"/>
         <v>42975</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C108" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B109" s="2">
         <f t="shared" si="1"/>
         <v>42976</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C109" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B110" s="2">
         <f t="shared" si="1"/>
         <v>42977</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C110" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B111" s="2">
         <f t="shared" si="1"/>
         <v>42978</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C111" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B112" s="2">
         <f t="shared" si="1"/>
         <v>42979</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B113" s="2">
         <f t="shared" si="1"/>
         <v>42982</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B114" s="2">
         <f t="shared" si="1"/>
         <v>42983</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B115" s="2">
         <f t="shared" si="1"/>
         <v>42984</v>
       </c>
     </row>
-    <row r="116" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B116" s="2">
         <f t="shared" si="1"/>
         <v>42985</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B117" s="2">
         <f t="shared" si="1"/>
         <v>42986</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B118" s="2">
         <f t="shared" si="1"/>
         <v>42989</v>
       </c>
     </row>
-    <row r="119" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B119" s="2">
         <f t="shared" si="1"/>
         <v>42990</v>
       </c>
     </row>
-    <row r="120" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B120" s="2">
         <f t="shared" si="1"/>
         <v>42991</v>
       </c>
     </row>
-    <row r="121" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B121" s="2">
         <f t="shared" si="1"/>
         <v>42992</v>
       </c>
     </row>
-    <row r="122" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B122" s="2">
         <f t="shared" si="1"/>
         <v>42993</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B123" s="2">
         <f t="shared" si="1"/>
         <v>42996</v>
       </c>
     </row>
-    <row r="124" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B124" s="2">
         <f t="shared" si="1"/>
         <v>42997</v>
       </c>
     </row>
-    <row r="125" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B125" s="2">
         <f t="shared" si="1"/>
         <v>42998</v>
       </c>
     </row>
-    <row r="126" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B126" s="2">
         <f t="shared" si="1"/>
         <v>42999</v>
       </c>
     </row>
-    <row r="127" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B127" s="2">
         <f t="shared" si="1"/>
         <v>43000</v>
       </c>
     </row>
-    <row r="128" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B128" s="2">
         <f t="shared" si="1"/>
         <v>43003</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B129" s="2">
         <f t="shared" si="1"/>
         <v>43004</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B130" s="2">
         <f t="shared" si="1"/>
         <v>43005</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B131" s="2">
         <f t="shared" si="1"/>
         <v>43006</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B132" s="2">
         <f t="shared" si="1"/>
         <v>43007</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B133" s="2">
         <f t="shared" ref="B133:B196" si="2">WORKDAY(B132,1)</f>
         <v>43010</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B134" s="2">
         <f t="shared" si="2"/>
         <v>43011</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B135" s="2">
         <f t="shared" si="2"/>
         <v>43012</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B136" s="2">
         <f t="shared" si="2"/>
         <v>43013</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B137" s="2">
         <f t="shared" si="2"/>
         <v>43014</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B138" s="2">
         <f t="shared" si="2"/>
         <v>43017</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B139" s="2">
         <f t="shared" si="2"/>
         <v>43018</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B140" s="2">
         <f t="shared" si="2"/>
         <v>43019</v>
       </c>
     </row>
-    <row r="141" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B141" s="2">
         <f t="shared" si="2"/>
         <v>43020</v>
       </c>
     </row>
-    <row r="142" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B142" s="2">
         <f t="shared" si="2"/>
         <v>43021</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B143" s="2">
         <f t="shared" si="2"/>
         <v>43024</v>
       </c>
     </row>
-    <row r="144" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B144" s="2">
         <f t="shared" si="2"/>
         <v>43025</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B145" s="2">
         <f t="shared" si="2"/>
         <v>43026</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B146" s="2">
         <f t="shared" si="2"/>
         <v>43027</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B147" s="2">
         <f t="shared" si="2"/>
         <v>43028</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B148" s="2">
         <f t="shared" si="2"/>
         <v>43031</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B149" s="2">
         <f t="shared" si="2"/>
         <v>43032</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B150" s="2">
         <f t="shared" si="2"/>
         <v>43033</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B151" s="2">
         <f t="shared" si="2"/>
         <v>43034</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B152" s="2">
         <f t="shared" si="2"/>
         <v>43035</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B153" s="2">
         <f t="shared" si="2"/>
         <v>43038</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B154" s="2">
         <f t="shared" si="2"/>
         <v>43039</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B155" s="2">
         <f t="shared" si="2"/>
         <v>43040</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B156" s="2">
         <f t="shared" si="2"/>
         <v>43041</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B157" s="2">
         <f t="shared" si="2"/>
         <v>43042</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B158" s="2">
         <f t="shared" si="2"/>
         <v>43045</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B159" s="2">
         <f t="shared" si="2"/>
         <v>43046</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B160" s="2">
         <f t="shared" si="2"/>
         <v>43047</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B161" s="2">
         <f t="shared" si="2"/>
         <v>43048</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B162" s="2">
         <f t="shared" si="2"/>
         <v>43049</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B163" s="2">
         <f t="shared" si="2"/>
         <v>43052</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B164" s="2">
         <f t="shared" si="2"/>
         <v>43053</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B165" s="2">
         <f t="shared" si="2"/>
         <v>43054</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B166" s="2">
         <f t="shared" si="2"/>
         <v>43055</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B167" s="2">
         <f t="shared" si="2"/>
         <v>43056</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B168" s="2">
         <f t="shared" si="2"/>
         <v>43059</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B169" s="2">
         <f t="shared" si="2"/>
         <v>43060</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B170" s="2">
         <f t="shared" si="2"/>
         <v>43061</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B171" s="2">
         <f t="shared" si="2"/>
         <v>43062</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B172" s="2">
         <f t="shared" si="2"/>
         <v>43063</v>
       </c>
     </row>
-    <row r="173" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B173" s="2">
         <f t="shared" si="2"/>
         <v>43066</v>
       </c>
     </row>
-    <row r="174" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B174" s="2">
         <f t="shared" si="2"/>
         <v>43067</v>
       </c>
     </row>
-    <row r="175" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B175" s="2">
         <f t="shared" si="2"/>
         <v>43068</v>
       </c>
     </row>
-    <row r="176" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B176" s="2">
         <f t="shared" si="2"/>
         <v>43069</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B177" s="2">
         <f t="shared" si="2"/>
         <v>43070</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B178" s="2">
         <f t="shared" si="2"/>
         <v>43073</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B179" s="2">
         <f t="shared" si="2"/>
         <v>43074</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B180" s="2">
         <f t="shared" si="2"/>
         <v>43075</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B181" s="2">
         <f t="shared" si="2"/>
         <v>43076</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B182" s="2">
         <f t="shared" si="2"/>
         <v>43077</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B183" s="2">
         <f t="shared" si="2"/>
         <v>43080</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B184" s="2">
         <f t="shared" si="2"/>
         <v>43081</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B185" s="2">
         <f t="shared" si="2"/>
         <v>43082</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B186" s="2">
         <f t="shared" si="2"/>
         <v>43083</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B187" s="2">
         <f t="shared" si="2"/>
         <v>43084</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B188" s="2">
         <f t="shared" si="2"/>
         <v>43087</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B189" s="2">
         <f t="shared" si="2"/>
         <v>43088</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B190" s="2">
         <f t="shared" si="2"/>
         <v>43089</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B191" s="2">
         <f t="shared" si="2"/>
         <v>43090</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B192" s="2">
         <f t="shared" si="2"/>
         <v>43091</v>
       </c>
     </row>
-    <row r="193" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B193" s="2">
         <f t="shared" si="2"/>
         <v>43094</v>
       </c>
     </row>
-    <row r="194" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B194" s="2">
         <f t="shared" si="2"/>
         <v>43095</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B195" s="2">
         <f t="shared" si="2"/>
         <v>43096</v>
       </c>
     </row>
-    <row r="196" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B196" s="2">
         <f t="shared" si="2"/>
         <v>43097</v>
       </c>
     </row>
-    <row r="197" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B197" s="2">
         <f t="shared" ref="B197:B260" si="3">WORKDAY(B196,1)</f>
         <v>43098</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B198" s="2">
         <f t="shared" si="3"/>
         <v>43101</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B199" s="2">
         <f t="shared" si="3"/>
         <v>43102</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B200" s="2">
         <f t="shared" si="3"/>
         <v>43103</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B201" s="2">
         <f t="shared" si="3"/>
         <v>43104</v>
       </c>
     </row>
-    <row r="202" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B202" s="2">
         <f t="shared" si="3"/>
         <v>43105</v>
       </c>
     </row>
-    <row r="203" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B203" s="2">
         <f t="shared" si="3"/>
         <v>43108</v>
       </c>
     </row>
-    <row r="204" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B204" s="2">
         <f t="shared" si="3"/>
         <v>43109</v>
       </c>
     </row>
-    <row r="205" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B205" s="2">
         <f t="shared" si="3"/>
         <v>43110</v>
       </c>
     </row>
-    <row r="206" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B206" s="2">
         <f t="shared" si="3"/>
         <v>43111</v>
       </c>
     </row>
-    <row r="207" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B207" s="2">
         <f t="shared" si="3"/>
         <v>43112</v>
       </c>
     </row>
-    <row r="208" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B208" s="2">
         <f t="shared" si="3"/>
         <v>43115</v>
       </c>
     </row>
-    <row r="209" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B209" s="2">
         <f t="shared" si="3"/>
         <v>43116</v>
       </c>
     </row>
-    <row r="210" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B210" s="2">
         <f t="shared" si="3"/>
         <v>43117</v>
       </c>
     </row>
-    <row r="211" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B211" s="2">
         <f t="shared" si="3"/>
         <v>43118</v>
       </c>
     </row>
-    <row r="212" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B212" s="2">
         <f t="shared" si="3"/>
         <v>43119</v>
       </c>
     </row>
-    <row r="213" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B213" s="2">
         <f t="shared" si="3"/>
         <v>43122</v>
       </c>
     </row>
-    <row r="214" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B214" s="2">
         <f t="shared" si="3"/>
         <v>43123</v>
       </c>
     </row>
-    <row r="215" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B215" s="2">
         <f t="shared" si="3"/>
         <v>43124</v>
       </c>
     </row>
-    <row r="216" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B216" s="2">
         <f t="shared" si="3"/>
         <v>43125</v>
       </c>
     </row>
-    <row r="217" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B217" s="2">
         <f t="shared" si="3"/>
         <v>43126</v>
       </c>
     </row>
-    <row r="218" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B218" s="2">
         <f t="shared" si="3"/>
         <v>43129</v>
       </c>
     </row>
-    <row r="219" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B219" s="2">
         <f t="shared" si="3"/>
         <v>43130</v>
       </c>
     </row>
-    <row r="220" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B220" s="2">
         <f t="shared" si="3"/>
         <v>43131</v>
       </c>
     </row>
-    <row r="221" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B221" s="2">
         <f t="shared" si="3"/>
         <v>43132</v>
       </c>
     </row>
-    <row r="222" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B222" s="2">
         <f t="shared" si="3"/>
         <v>43133</v>
       </c>
     </row>
-    <row r="223" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B223" s="2">
         <f t="shared" si="3"/>
         <v>43136</v>
       </c>
     </row>
-    <row r="224" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B224" s="2">
         <f t="shared" si="3"/>
         <v>43137</v>
       </c>
     </row>
-    <row r="225" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B225" s="2">
         <f t="shared" si="3"/>
         <v>43138</v>
       </c>
     </row>
-    <row r="226" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B226" s="2">
         <f t="shared" si="3"/>
         <v>43139</v>
       </c>
     </row>
-    <row r="227" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B227" s="2">
         <f t="shared" si="3"/>
         <v>43140</v>
       </c>
     </row>
-    <row r="228" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B228" s="2">
         <f t="shared" si="3"/>
         <v>43143</v>
       </c>
     </row>
-    <row r="229" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B229" s="2">
         <f t="shared" si="3"/>
         <v>43144</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B230" s="2">
         <f t="shared" si="3"/>
         <v>43145</v>
       </c>
     </row>
-    <row r="231" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B231" s="2">
         <f t="shared" si="3"/>
         <v>43146</v>
       </c>
     </row>
-    <row r="232" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B232" s="2">
         <f t="shared" si="3"/>
         <v>43147</v>
       </c>
     </row>
-    <row r="233" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B233" s="2">
         <f t="shared" si="3"/>
         <v>43150</v>
       </c>
     </row>
-    <row r="234" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B234" s="2">
         <f t="shared" si="3"/>
         <v>43151</v>
       </c>
     </row>
-    <row r="235" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B235" s="2">
         <f t="shared" si="3"/>
         <v>43152</v>
       </c>
     </row>
-    <row r="236" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B236" s="2">
         <f t="shared" si="3"/>
         <v>43153</v>
       </c>
     </row>
-    <row r="237" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B237" s="2">
         <f t="shared" si="3"/>
         <v>43154</v>
       </c>
     </row>
-    <row r="238" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B238" s="2">
         <f t="shared" si="3"/>
         <v>43157</v>
       </c>
     </row>
-    <row r="239" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B239" s="2">
         <f t="shared" si="3"/>
         <v>43158</v>
       </c>
     </row>
-    <row r="240" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B240" s="2">
         <f t="shared" si="3"/>
         <v>43159</v>
       </c>
     </row>
-    <row r="241" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B241" s="2">
         <f t="shared" si="3"/>
         <v>43160</v>
       </c>
     </row>
-    <row r="242" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B242" s="2">
         <f t="shared" si="3"/>
         <v>43161</v>
       </c>
     </row>
-    <row r="243" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B243" s="2">
         <f t="shared" si="3"/>
         <v>43164</v>
       </c>
     </row>
-    <row r="244" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B244" s="2">
         <f t="shared" si="3"/>
         <v>43165</v>
       </c>
     </row>
-    <row r="245" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B245" s="2">
         <f t="shared" si="3"/>
         <v>43166</v>
       </c>
     </row>
-    <row r="246" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B246" s="2">
         <f t="shared" si="3"/>
         <v>43167</v>
       </c>
     </row>
-    <row r="247" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B247" s="2">
         <f t="shared" si="3"/>
         <v>43168</v>
       </c>
     </row>
-    <row r="248" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B248" s="2">
         <f t="shared" si="3"/>
         <v>43171</v>
       </c>
     </row>
-    <row r="249" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B249" s="2">
         <f t="shared" si="3"/>
         <v>43172</v>
       </c>
     </row>
-    <row r="250" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B250" s="2">
         <f t="shared" si="3"/>
         <v>43173</v>
       </c>
     </row>
-    <row r="251" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B251" s="2">
         <f t="shared" si="3"/>
         <v>43174</v>
       </c>
     </row>
-    <row r="252" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B252" s="2">
         <f t="shared" si="3"/>
         <v>43175</v>
       </c>
     </row>
-    <row r="253" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B253" s="2">
         <f t="shared" si="3"/>
         <v>43178</v>
       </c>
     </row>
-    <row r="254" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B254" s="2">
         <f t="shared" si="3"/>
         <v>43179</v>
       </c>
     </row>
-    <row r="255" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B255" s="2">
         <f t="shared" si="3"/>
         <v>43180</v>
       </c>
     </row>
-    <row r="256" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B256" s="2">
         <f t="shared" si="3"/>
         <v>43181</v>
       </c>
     </row>
-    <row r="257" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B257" s="2">
         <f t="shared" si="3"/>
         <v>43182</v>
       </c>
     </row>
-    <row r="258" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B258" s="2">
         <f t="shared" si="3"/>
         <v>43185</v>
       </c>
     </row>
-    <row r="259" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B259" s="2">
         <f t="shared" si="3"/>
         <v>43186</v>
       </c>
     </row>
-    <row r="260" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B260" s="2">
         <f t="shared" si="3"/>
         <v>43187</v>
       </c>
     </row>
-    <row r="261" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B261" s="2">
         <f t="shared" ref="B261:B324" si="4">WORKDAY(B260,1)</f>
         <v>43188</v>
       </c>
     </row>
-    <row r="262" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B262" s="2">
         <f t="shared" si="4"/>
         <v>43189</v>
       </c>
     </row>
-    <row r="263" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B263" s="2">
         <f t="shared" si="4"/>
         <v>43192</v>
       </c>
     </row>
-    <row r="264" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B264" s="2">
         <f t="shared" si="4"/>
         <v>43193</v>
       </c>
     </row>
-    <row r="265" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B265" s="2">
         <f t="shared" si="4"/>
         <v>43194</v>
       </c>
     </row>
-    <row r="266" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B266" s="2">
         <f t="shared" si="4"/>
         <v>43195</v>
       </c>
     </row>
-    <row r="267" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B267" s="2">
         <f t="shared" si="4"/>
         <v>43196</v>
       </c>
     </row>
-    <row r="268" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B268" s="2">
         <f t="shared" si="4"/>
         <v>43199</v>
       </c>
     </row>
-    <row r="269" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B269" s="2">
         <f t="shared" si="4"/>
         <v>43200</v>
       </c>
     </row>
-    <row r="270" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B270" s="2">
         <f t="shared" si="4"/>
         <v>43201</v>
       </c>
     </row>
-    <row r="271" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B271" s="2">
         <f t="shared" si="4"/>
         <v>43202</v>
       </c>
     </row>
-    <row r="272" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B272" s="2">
         <f t="shared" si="4"/>
         <v>43203</v>
       </c>
     </row>
-    <row r="273" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B273" s="2">
         <f t="shared" si="4"/>
         <v>43206</v>
       </c>
     </row>
-    <row r="274" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B274" s="2">
         <f t="shared" si="4"/>
         <v>43207</v>
       </c>
     </row>
-    <row r="275" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B275" s="2">
         <f t="shared" si="4"/>
         <v>43208</v>
       </c>
     </row>
-    <row r="276" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B276" s="2">
         <f t="shared" si="4"/>
         <v>43209</v>
       </c>
     </row>
-    <row r="277" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B277" s="2">
         <f t="shared" si="4"/>
         <v>43210</v>
       </c>
     </row>
-    <row r="278" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B278" s="2">
         <f t="shared" si="4"/>
         <v>43213</v>
       </c>
     </row>
-    <row r="279" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B279" s="2">
         <f t="shared" si="4"/>
         <v>43214</v>
       </c>
     </row>
-    <row r="280" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B280" s="2">
         <f t="shared" si="4"/>
         <v>43215</v>
       </c>
     </row>
-    <row r="281" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B281" s="2">
         <f t="shared" si="4"/>
         <v>43216</v>
       </c>
     </row>
-    <row r="282" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B282" s="2">
         <f t="shared" si="4"/>
         <v>43217</v>
       </c>
     </row>
-    <row r="283" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B283" s="2">
         <f t="shared" si="4"/>
         <v>43220</v>
       </c>
     </row>
-    <row r="284" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B284" s="2">
         <f t="shared" si="4"/>
         <v>43221</v>
       </c>
     </row>
-    <row r="285" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B285" s="2">
         <f t="shared" si="4"/>
         <v>43222</v>
       </c>
     </row>
-    <row r="286" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B286" s="2">
         <f t="shared" si="4"/>
         <v>43223</v>
       </c>
     </row>
-    <row r="287" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B287" s="2">
         <f t="shared" si="4"/>
         <v>43224</v>
       </c>
     </row>
-    <row r="288" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B288" s="2">
         <f t="shared" si="4"/>
         <v>43227</v>
       </c>
     </row>
-    <row r="289" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B289" s="2">
         <f t="shared" si="4"/>
         <v>43228</v>
       </c>
     </row>
-    <row r="290" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B290" s="2">
         <f t="shared" si="4"/>
         <v>43229</v>
       </c>
     </row>
-    <row r="291" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B291" s="2">
         <f t="shared" si="4"/>
         <v>43230</v>
       </c>
     </row>
-    <row r="292" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B292" s="2">
         <f t="shared" si="4"/>
         <v>43231</v>
       </c>
     </row>
-    <row r="293" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B293" s="2">
         <f t="shared" si="4"/>
         <v>43234</v>
       </c>
     </row>
-    <row r="294" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B294" s="2">
         <f t="shared" si="4"/>
         <v>43235</v>
       </c>
     </row>
-    <row r="295" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B295" s="2">
         <f t="shared" si="4"/>
         <v>43236</v>
       </c>
     </row>
-    <row r="296" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B296" s="2">
         <f t="shared" si="4"/>
         <v>43237</v>
       </c>
     </row>
-    <row r="297" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B297" s="2">
         <f t="shared" si="4"/>
         <v>43238</v>
       </c>
     </row>
-    <row r="298" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B298" s="2">
         <f t="shared" si="4"/>
         <v>43241</v>
       </c>
     </row>
-    <row r="299" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B299" s="2">
         <f t="shared" si="4"/>
         <v>43242</v>
       </c>
     </row>
-    <row r="300" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B300" s="2">
         <f t="shared" si="4"/>
         <v>43243</v>
       </c>
     </row>
-    <row r="301" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B301" s="2">
         <f t="shared" si="4"/>
         <v>43244</v>
       </c>
     </row>
-    <row r="302" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B302" s="2">
         <f t="shared" si="4"/>
         <v>43245</v>
       </c>
     </row>
-    <row r="303" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B303" s="2">
         <f t="shared" si="4"/>
         <v>43248</v>
       </c>
     </row>
-    <row r="304" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B304" s="2">
         <f t="shared" si="4"/>
         <v>43249</v>
       </c>
     </row>
-    <row r="305" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B305" s="2">
         <f t="shared" si="4"/>
         <v>43250</v>
       </c>
     </row>
-    <row r="306" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B306" s="2">
         <f t="shared" si="4"/>
         <v>43251</v>
       </c>
     </row>
-    <row r="307" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B307" s="2">
         <f t="shared" si="4"/>
         <v>43252</v>
       </c>
     </row>
-    <row r="308" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B308" s="2">
         <f t="shared" si="4"/>
         <v>43255</v>
       </c>
     </row>
-    <row r="309" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B309" s="2">
         <f t="shared" si="4"/>
         <v>43256</v>
       </c>
     </row>
-    <row r="310" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B310" s="2">
         <f t="shared" si="4"/>
         <v>43257</v>
       </c>
     </row>
-    <row r="311" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B311" s="2">
         <f t="shared" si="4"/>
         <v>43258</v>
       </c>
     </row>
-    <row r="312" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B312" s="2">
         <f t="shared" si="4"/>
         <v>43259</v>
       </c>
     </row>
-    <row r="313" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B313" s="2">
         <f t="shared" si="4"/>
         <v>43262</v>
       </c>
     </row>
-    <row r="314" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B314" s="2">
         <f t="shared" si="4"/>
         <v>43263</v>
       </c>
     </row>
-    <row r="315" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B315" s="2">
         <f t="shared" si="4"/>
         <v>43264</v>
       </c>
     </row>
-    <row r="316" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B316" s="2">
         <f t="shared" si="4"/>
         <v>43265</v>
       </c>
     </row>
-    <row r="317" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B317" s="2">
         <f t="shared" si="4"/>
         <v>43266</v>
       </c>
     </row>
-    <row r="318" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B318" s="2">
         <f t="shared" si="4"/>
         <v>43269</v>
       </c>
     </row>
-    <row r="319" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B319" s="2">
         <f t="shared" si="4"/>
         <v>43270</v>
       </c>
     </row>
-    <row r="320" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B320" s="2">
         <f t="shared" si="4"/>
         <v>43271</v>
       </c>
     </row>
-    <row r="321" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B321" s="2">
         <f t="shared" si="4"/>
         <v>43272</v>
       </c>
     </row>
-    <row r="322" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B322" s="2">
         <f t="shared" si="4"/>
         <v>43273</v>
       </c>
     </row>
-    <row r="323" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B323" s="2">
         <f t="shared" si="4"/>
         <v>43276</v>
       </c>
     </row>
-    <row r="324" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B324" s="2">
         <f t="shared" si="4"/>
         <v>43277</v>
       </c>
     </row>
-    <row r="325" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B325" s="2">
         <f t="shared" ref="B325:B356" si="5">WORKDAY(B324,1)</f>
         <v>43278</v>
       </c>
     </row>
-    <row r="326" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B326" s="2">
         <f t="shared" si="5"/>
         <v>43279</v>
       </c>
     </row>
-    <row r="327" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B327" s="2">
         <f t="shared" si="5"/>
         <v>43280</v>
       </c>
     </row>
-    <row r="328" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B328" s="2">
         <f t="shared" si="5"/>
         <v>43283</v>
       </c>
     </row>
-    <row r="329" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B329" s="2">
         <f t="shared" si="5"/>
         <v>43284</v>
       </c>
     </row>
-    <row r="330" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B330" s="2">
         <f t="shared" si="5"/>
         <v>43285</v>
       </c>
     </row>
-    <row r="331" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B331" s="2">
         <f t="shared" si="5"/>
         <v>43286</v>
       </c>
     </row>
-    <row r="332" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B332" s="2">
         <f t="shared" si="5"/>
         <v>43287</v>
       </c>
     </row>
-    <row r="333" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B333" s="2">
         <f t="shared" si="5"/>
         <v>43290</v>
       </c>
     </row>
-    <row r="334" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B334" s="2">
         <f t="shared" si="5"/>
         <v>43291</v>
       </c>
     </row>
-    <row r="335" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B335" s="2">
         <f t="shared" si="5"/>
         <v>43292</v>
       </c>
     </row>
-    <row r="336" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B336" s="2">
         <f t="shared" si="5"/>
         <v>43293</v>
       </c>
     </row>
-    <row r="337" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B337" s="2">
         <f t="shared" si="5"/>
         <v>43294</v>
       </c>
     </row>
-    <row r="338" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B338" s="2">
         <f t="shared" si="5"/>
         <v>43297</v>
       </c>
     </row>
-    <row r="339" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B339" s="2">
         <f t="shared" si="5"/>
         <v>43298</v>
       </c>
     </row>
-    <row r="340" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B340" s="2">
         <f t="shared" si="5"/>
         <v>43299</v>
       </c>
     </row>
-    <row r="341" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B341" s="2">
         <f t="shared" si="5"/>
         <v>43300</v>
       </c>
     </row>
-    <row r="342" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B342" s="2">
         <f t="shared" si="5"/>
         <v>43301</v>
       </c>
     </row>
-    <row r="343" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B343" s="2">
         <f t="shared" si="5"/>
         <v>43304</v>
       </c>
     </row>
-    <row r="344" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B344" s="2">
         <f t="shared" si="5"/>
         <v>43305</v>
       </c>
     </row>
-    <row r="345" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B345" s="2">
         <f t="shared" si="5"/>
         <v>43306</v>
       </c>
     </row>
-    <row r="346" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B346" s="2">
         <f t="shared" si="5"/>
         <v>43307</v>
       </c>
     </row>
-    <row r="347" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B347" s="2">
         <f t="shared" si="5"/>
         <v>43308</v>
       </c>
     </row>
-    <row r="348" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B348" s="2">
         <f t="shared" si="5"/>
         <v>43311</v>
       </c>
     </row>
-    <row r="349" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B349" s="2">
         <f t="shared" si="5"/>
         <v>43312</v>
       </c>
     </row>
-    <row r="350" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B350" s="2">
         <f t="shared" si="5"/>
         <v>43313</v>
       </c>
     </row>
-    <row r="351" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B351" s="2">
         <f t="shared" si="5"/>
         <v>43314</v>
       </c>
     </row>
-    <row r="352" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B352" s="2">
         <f t="shared" si="5"/>
         <v>43315</v>
       </c>
     </row>
-    <row r="353" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B353" s="2">
         <f t="shared" si="5"/>
         <v>43318</v>
       </c>
     </row>
-    <row r="354" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B354" s="2">
         <f t="shared" si="5"/>
         <v>43319</v>
       </c>
     </row>
-    <row r="355" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B355" s="2">
         <f t="shared" si="5"/>
         <v>43320</v>
       </c>
     </row>
-    <row r="356" spans="2:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B356" s="2">
         <f t="shared" si="5"/>
         <v>43321</v>
